--- a/source/doc/Measurements4.xlsx
+++ b/source/doc/Measurements4.xlsx
@@ -8,15 +8,17 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tixo\Work\Tikhomirov2\vi_metrics_time\source\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{76F824F0-090A-4705-86D4-B3C6589882D1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3ED666C4-73B5-4944-BC08-78D9C73A0AFE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="645" yWindow="225" windowWidth="25980" windowHeight="16845" xr2:uid="{FDD1F062-B851-49B6-886E-B3EC290E6614}"/>
+    <workbookView xWindow="645" yWindow="225" windowWidth="25980" windowHeight="16845" activeTab="1" xr2:uid="{FDD1F062-B851-49B6-886E-B3EC290E6614}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
+    <sheet name="Лист1 (2)" sheetId="3" r:id="rId2"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Лист1!$A$2:$L$2</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'Лист1 (2)'!$A$2:$I$2</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -39,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="286" uniqueCount="79">
   <si>
     <t>Discreteness</t>
   </si>
@@ -68,9 +70,6 @@
     <t>Windows</t>
   </si>
   <si>
-    <t>Name [ns.]</t>
-  </si>
-  <si>
     <t>&lt;C&gt;  ::timespec_get(TIME_UTC)</t>
   </si>
   <si>
@@ -249,6 +248,36 @@
   </si>
   <si>
     <t>Avg</t>
+  </si>
+  <si>
+    <t>nanoseconds</t>
+  </si>
+  <si>
+    <t>Name</t>
+  </si>
+  <si>
+    <t>&lt;ASM&gt;::CPUID+RDTSC</t>
+  </si>
+  <si>
+    <t>&lt;ASM&gt;::LFENCE+RDTSC</t>
+  </si>
+  <si>
+    <t>&lt;ASM&gt;::MFENCE+LFENCE+RDTSC</t>
+  </si>
+  <si>
+    <t>&lt;ASM&gt;::RDTSC</t>
+  </si>
+  <si>
+    <t>&lt;ASM&gt;::RDTSCP</t>
+  </si>
+  <si>
+    <t>&lt;ASM&gt;::RDTSCP+CPUID</t>
+  </si>
+  <si>
+    <t>&lt;ASM&gt;::RDTSCP+LFENCE</t>
+  </si>
+  <si>
+    <t>[nanoseconds]</t>
   </si>
 </sst>
 </file>
@@ -256,9 +285,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="#,##0.0"/>
+    <numFmt numFmtId="164" formatCode="#,##0.0"/>
   </numFmts>
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -299,6 +328,14 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="9"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -326,12 +363,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="165" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="4" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -341,9 +378,13 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="4" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -680,16 +721,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5226C7DB-4522-4607-A447-60A0B57A6F3E}">
   <dimension ref="A1:O61"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="N48" sqref="N48"/>
+      <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="51" bestFit="1" customWidth="1"/>
     <col min="2" max="3" width="14" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14" style="3" customWidth="1"/>
+    <col min="4" max="4" width="14" style="3" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="7.85546875" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="11.42578125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="7" style="3" bestFit="1" customWidth="1"/>
@@ -700,29 +741,32 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" s="10" customFormat="1" ht="31.5" x14ac:dyDescent="0.5">
-      <c r="B1" s="11" t="s">
+      <c r="A1" s="11" t="s">
+        <v>69</v>
+      </c>
+      <c r="B1" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="11"/>
-      <c r="D1" s="11"/>
-      <c r="E1" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="F1" s="11"/>
-      <c r="G1" s="11"/>
-      <c r="H1" s="11" t="s">
+      <c r="C1" s="15"/>
+      <c r="D1" s="15"/>
+      <c r="E1" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="F1" s="15"/>
+      <c r="G1" s="15"/>
+      <c r="H1" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="I1" s="11"/>
-      <c r="J1" s="11"/>
-      <c r="K1" s="11" t="s">
+      <c r="I1" s="15"/>
+      <c r="J1" s="15"/>
+      <c r="K1" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="L1" s="11"/>
+      <c r="L1" s="15"/>
     </row>
     <row r="2" spans="1:15" s="7" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A2" s="7" t="s">
-        <v>9</v>
+        <v>70</v>
       </c>
       <c r="B2" s="7" t="s">
         <v>7</v>
@@ -731,7 +775,7 @@
         <v>8</v>
       </c>
       <c r="D2" s="8" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E2" s="7" t="s">
         <v>7</v>
@@ -740,7 +784,7 @@
         <v>8</v>
       </c>
       <c r="G2" s="8" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="H2" s="7" t="s">
         <v>7</v>
@@ -749,7 +793,7 @@
         <v>8</v>
       </c>
       <c r="J2" s="8" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="K2" s="7" t="s">
         <v>7</v>
@@ -760,27 +804,27 @@
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>16</v>
+        <v>28</v>
       </c>
       <c r="B3" s="2">
-        <v>6.4</v>
+        <v>29.5</v>
       </c>
       <c r="C3" s="2">
-        <v>6.3</v>
+        <v>29.5</v>
       </c>
       <c r="D3" s="4">
         <f>GEOMEAN(B3:C3)</f>
-        <v>6.3498031465550175</v>
+        <v>29.5</v>
       </c>
       <c r="E3" s="2">
-        <v>6.4</v>
+        <v>29</v>
       </c>
       <c r="F3" s="2">
-        <v>6.3</v>
+        <v>29</v>
       </c>
       <c r="G3" s="4">
         <f>GEOMEAN(E3:F3)</f>
-        <v>6.3498031465550175</v>
+        <v>29</v>
       </c>
       <c r="H3" s="9">
         <v>0.25</v>
@@ -802,27 +846,27 @@
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>17</v>
+        <v>27</v>
       </c>
       <c r="B4" s="2">
-        <v>6.4</v>
+        <v>29.6</v>
       </c>
       <c r="C4" s="2">
-        <v>6.4</v>
+        <v>28.8</v>
       </c>
       <c r="D4" s="4">
         <f>GEOMEAN(B4:C4)</f>
-        <v>6.4</v>
+        <v>29.197260145431457</v>
       </c>
       <c r="E4" s="2">
-        <v>6.5</v>
+        <v>29</v>
       </c>
       <c r="F4" s="2">
-        <v>6.3</v>
+        <v>29</v>
       </c>
       <c r="G4" s="4">
         <f>GEOMEAN(E4:F4)</f>
-        <v>6.3992187023104625</v>
+        <v>29</v>
       </c>
       <c r="H4" s="9">
         <v>0.25</v>
@@ -843,27 +887,27 @@
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="B5" s="2">
         <v>9.3000000000000007</v>
       </c>
       <c r="C5" s="2">
-        <v>9.3000000000000007</v>
+        <v>10.299999999999999</v>
       </c>
       <c r="D5" s="4">
         <f>GEOMEAN(B5:C5)</f>
+        <v>9.7872365864936555</v>
+      </c>
+      <c r="E5" s="2">
         <v>9.3000000000000007</v>
       </c>
-      <c r="E5" s="2">
-        <v>9.1999999999999993</v>
-      </c>
       <c r="F5" s="2">
-        <v>9</v>
+        <v>9.6</v>
       </c>
       <c r="G5" s="4">
         <f>GEOMEAN(E5:F5)</f>
-        <v>9.0994505328618605</v>
+        <v>9.4488094488141741</v>
       </c>
       <c r="H5" s="9">
         <v>0.25</v>
@@ -884,17 +928,17 @@
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B6" s="2">
-        <v>9.5</v>
+        <v>9.8000000000000007</v>
       </c>
       <c r="C6" s="2">
         <v>9.8000000000000007</v>
       </c>
       <c r="D6" s="4">
         <f>GEOMEAN(B6:C6)</f>
-        <v>9.6488341264631554</v>
+        <v>9.8000000000000007</v>
       </c>
       <c r="E6" s="2">
         <v>9.3000000000000007</v>
@@ -925,27 +969,27 @@
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="B7" s="2">
-        <v>9.1999999999999993</v>
+        <v>16.400000000000002</v>
       </c>
       <c r="C7" s="2">
-        <v>10</v>
+        <v>17.399999999999999</v>
       </c>
       <c r="D7" s="4">
         <f>GEOMEAN(B7:C7)</f>
-        <v>9.59166304662544</v>
+        <v>16.892601931022941</v>
       </c>
       <c r="E7" s="2">
-        <v>9.1999999999999993</v>
+        <v>18</v>
       </c>
       <c r="F7" s="2">
-        <v>9.1999999999999993</v>
+        <v>17</v>
       </c>
       <c r="G7" s="4">
         <f>GEOMEAN(E7:F7)</f>
-        <v>9.1999999999999993</v>
+        <v>17.4928556845359</v>
       </c>
       <c r="H7" s="9">
         <v>0.25</v>
@@ -966,27 +1010,27 @@
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="B8" s="2">
-        <v>9.8000000000000007</v>
+        <v>17</v>
       </c>
       <c r="C8" s="2">
-        <v>10.299999999999999</v>
+        <v>16</v>
       </c>
       <c r="D8" s="4">
         <f>GEOMEAN(B8:C8)</f>
-        <v>10.046890066085126</v>
+        <v>16.492422502470642</v>
       </c>
       <c r="E8" s="2">
-        <v>9.4</v>
+        <v>17</v>
       </c>
       <c r="F8" s="2">
-        <v>9.6</v>
+        <v>17</v>
       </c>
       <c r="G8" s="4">
         <f>GEOMEAN(E8:F8)</f>
-        <v>9.4994736696303335</v>
+        <v>17</v>
       </c>
       <c r="H8" s="9">
         <v>0.25</v>
@@ -1006,28 +1050,28 @@
       </c>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A9" s="14" t="s">
-        <v>20</v>
+      <c r="A9" t="s">
+        <v>16</v>
       </c>
       <c r="B9" s="2">
-        <v>12.299999999999999</v>
+        <v>6.4</v>
       </c>
       <c r="C9" s="2">
-        <v>11.5</v>
+        <v>6.4</v>
       </c>
       <c r="D9" s="4">
         <f>GEOMEAN(B9:C9)</f>
-        <v>11.893275410920239</v>
+        <v>6.4</v>
       </c>
       <c r="E9" s="2">
-        <v>12</v>
+        <v>6.4</v>
       </c>
       <c r="F9" s="2">
-        <v>12</v>
+        <v>6.3</v>
       </c>
       <c r="G9" s="4">
         <f>GEOMEAN(E9:F9)</f>
-        <v>12</v>
+        <v>6.3498031465550175</v>
       </c>
       <c r="H9" s="9">
         <v>0.25</v>
@@ -1048,27 +1092,27 @@
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="B10" s="2">
-        <v>11.6</v>
+        <v>6.4</v>
       </c>
       <c r="C10" s="2">
-        <v>12.9</v>
+        <v>6.3</v>
       </c>
       <c r="D10" s="4">
         <f>GEOMEAN(B10:C10)</f>
-        <v>12.232742946698423</v>
+        <v>6.3498031465550175</v>
       </c>
       <c r="E10" s="2">
-        <v>12</v>
+        <v>6.4</v>
       </c>
       <c r="F10" s="2">
-        <v>13</v>
+        <v>6.3</v>
       </c>
       <c r="G10" s="4">
         <f>GEOMEAN(E10:F10)</f>
-        <v>12.489995996796797</v>
+        <v>6.3498031465550175</v>
       </c>
       <c r="H10" s="9">
         <v>0.25</v>
@@ -1089,27 +1133,27 @@
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="B11" s="2">
-        <v>17</v>
+        <v>9.5</v>
       </c>
       <c r="C11" s="2">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="D11" s="4">
         <f>GEOMEAN(B11:C11)</f>
-        <v>16.492422502470642</v>
+        <v>9.7467943448089631</v>
       </c>
       <c r="E11" s="2">
-        <v>17</v>
+        <v>9.1999999999999993</v>
       </c>
       <c r="F11" s="2">
-        <v>17</v>
+        <v>9.1999999999999993</v>
       </c>
       <c r="G11" s="4">
         <f>GEOMEAN(E11:F11)</f>
-        <v>17</v>
+        <v>9.1999999999999993</v>
       </c>
       <c r="H11" s="9">
         <v>0.25</v>
@@ -1130,27 +1174,27 @@
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="B12" s="2">
-        <v>16.3</v>
+        <v>9.3000000000000007</v>
       </c>
       <c r="C12" s="2">
-        <v>17.399999999999999</v>
+        <v>9.3000000000000007</v>
       </c>
       <c r="D12" s="4">
         <f>GEOMEAN(B12:C12)</f>
-        <v>16.841021346699851</v>
+        <v>9.3000000000000007</v>
       </c>
       <c r="E12" s="2">
-        <v>17</v>
+        <v>9.1999999999999993</v>
       </c>
       <c r="F12" s="2">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="G12" s="4">
         <f>GEOMEAN(E12:F12)</f>
-        <v>17</v>
+        <v>9.0994505328618605</v>
       </c>
       <c r="H12" s="9">
         <v>0.25</v>
@@ -1171,25 +1215,31 @@
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>28</v>
-      </c>
-      <c r="B13" s="2"/>
+        <v>22</v>
+      </c>
+      <c r="B13" s="2">
+        <v>31.900000000000002</v>
+      </c>
       <c r="C13" s="2">
-        <v>28.8</v>
+        <v>31.599999999999998</v>
       </c>
       <c r="D13" s="4">
         <f>GEOMEAN(B13:C13)</f>
-        <v>28.8</v>
-      </c>
-      <c r="E13" s="2"/>
+        <v>31.749645667314148</v>
+      </c>
+      <c r="E13" s="2">
+        <v>31</v>
+      </c>
       <c r="F13" s="2">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="G13" s="4">
         <f>GEOMEAN(E13:F13)</f>
-        <v>29</v>
-      </c>
-      <c r="H13" s="9"/>
+        <v>31.496031496047245</v>
+      </c>
+      <c r="H13" s="9">
+        <v>0.25</v>
+      </c>
       <c r="I13" s="9">
         <v>0.25</v>
       </c>
@@ -1197,33 +1247,36 @@
         <f>GEOMEAN(H13:I13)</f>
         <v>0.25</v>
       </c>
+      <c r="K13" t="s">
+        <v>3</v>
+      </c>
       <c r="L13" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="B14" s="2">
-        <v>29.799999999999997</v>
+        <v>31.599999999999998</v>
       </c>
       <c r="C14" s="2">
-        <v>29.6</v>
+        <v>31.599999999999998</v>
       </c>
       <c r="D14" s="4">
         <f>GEOMEAN(B14:C14)</f>
-        <v>29.699831649354511</v>
+        <v>31.599999999999998</v>
       </c>
       <c r="E14" s="2">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="F14" s="2">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="G14" s="4">
         <f>GEOMEAN(E14:F14)</f>
-        <v>29</v>
+        <v>31.496031496047245</v>
       </c>
       <c r="H14" s="9">
         <v>0.25</v>
@@ -1244,25 +1297,31 @@
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>22</v>
-      </c>
-      <c r="B15" s="2"/>
+        <v>20</v>
+      </c>
+      <c r="B15" s="2">
+        <v>12.100000000000001</v>
+      </c>
       <c r="C15" s="2">
-        <v>31.599999999999998</v>
+        <v>12.6</v>
       </c>
       <c r="D15" s="4">
         <f>GEOMEAN(B15:C15)</f>
-        <v>31.599999999999998</v>
-      </c>
-      <c r="E15" s="2"/>
+        <v>12.347469376354006</v>
+      </c>
+      <c r="E15" s="2">
+        <v>12</v>
+      </c>
       <c r="F15" s="2">
-        <v>32</v>
+        <v>13</v>
       </c>
       <c r="G15" s="4">
         <f>GEOMEAN(E15:F15)</f>
-        <v>32</v>
-      </c>
-      <c r="H15" s="9"/>
+        <v>12.489995996796797</v>
+      </c>
+      <c r="H15" s="9">
+        <v>0.25</v>
+      </c>
       <c r="I15" s="9">
         <v>0.25</v>
       </c>
@@ -1270,33 +1329,36 @@
         <f>GEOMEAN(H15:I15)</f>
         <v>0.25</v>
       </c>
+      <c r="K15" t="s">
+        <v>3</v>
+      </c>
       <c r="L15" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>23</v>
+      <c r="A16" s="14" t="s">
+        <v>19</v>
       </c>
       <c r="B16" s="2">
-        <v>31.900000000000002</v>
+        <v>11.9</v>
       </c>
       <c r="C16" s="2">
-        <v>32</v>
+        <v>11.799999999999999</v>
       </c>
       <c r="D16" s="4">
         <f>GEOMEAN(B16:C16)</f>
-        <v>31.949960876345372</v>
+        <v>11.849894514298429</v>
       </c>
       <c r="E16" s="2">
-        <v>31</v>
+        <v>12</v>
       </c>
       <c r="F16" s="2">
-        <v>32</v>
+        <v>12</v>
       </c>
       <c r="G16" s="4">
         <f>GEOMEAN(E16:F16)</f>
-        <v>31.496031496047245</v>
+        <v>12</v>
       </c>
       <c r="H16" s="9">
         <v>0.25</v>
@@ -1316,32 +1378,26 @@
       </c>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A17" s="14" t="s">
-        <v>14</v>
-      </c>
-      <c r="B17" s="2">
-        <v>16.400000000000002</v>
-      </c>
+      <c r="A17" t="s">
+        <v>44</v>
+      </c>
+      <c r="B17" s="2"/>
       <c r="C17" s="2">
-        <v>100</v>
+        <v>15600000</v>
       </c>
       <c r="D17" s="4">
         <f>GEOMEAN(B17:C17)</f>
-        <v>40.496913462633174</v>
-      </c>
-      <c r="E17" s="2">
-        <v>17</v>
-      </c>
+        <v>15600000</v>
+      </c>
+      <c r="E17" s="2"/>
       <c r="F17" s="2">
-        <v>16</v>
+        <v>870</v>
       </c>
       <c r="G17" s="4">
         <f>GEOMEAN(E17:F17)</f>
-        <v>16.492422502470642</v>
-      </c>
-      <c r="H17" s="9">
-        <v>1</v>
-      </c>
+        <v>870</v>
+      </c>
+      <c r="H17" s="9"/>
       <c r="I17" s="9">
         <v>1</v>
       </c>
@@ -1349,40 +1405,31 @@
         <f>GEOMEAN(H17:I17)</f>
         <v>1</v>
       </c>
-      <c r="K17" t="s">
-        <v>3</v>
-      </c>
       <c r="L17" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>15</v>
-      </c>
-      <c r="B18" s="2">
-        <v>16.5</v>
-      </c>
+        <v>43</v>
+      </c>
+      <c r="B18" s="2"/>
       <c r="C18" s="2">
-        <v>100</v>
+        <v>872</v>
       </c>
       <c r="D18" s="4">
         <f>GEOMEAN(B18:C18)</f>
-        <v>40.620192023179804</v>
-      </c>
-      <c r="E18" s="2">
-        <v>16</v>
-      </c>
+        <v>872</v>
+      </c>
+      <c r="E18" s="2"/>
       <c r="F18" s="2">
-        <v>16</v>
+        <v>870</v>
       </c>
       <c r="G18" s="4">
         <f>GEOMEAN(E18:F18)</f>
-        <v>16</v>
-      </c>
-      <c r="H18" s="9">
-        <v>1</v>
-      </c>
+        <v>870</v>
+      </c>
+      <c r="H18" s="9"/>
       <c r="I18" s="9">
         <v>1</v>
       </c>
@@ -1390,46 +1437,43 @@
         <f>GEOMEAN(H18:I18)</f>
         <v>1</v>
       </c>
-      <c r="K18" t="s">
-        <v>3</v>
-      </c>
       <c r="L18" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B19" s="2">
-        <v>16.5</v>
+        <v>16.7</v>
       </c>
       <c r="C19" s="2">
         <v>100</v>
       </c>
       <c r="D19" s="4">
         <f>GEOMEAN(B19:C19)</f>
-        <v>40.620192023179804</v>
+        <v>40.865633483405098</v>
       </c>
       <c r="E19" s="2">
         <v>16</v>
       </c>
       <c r="F19" s="2">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="G19" s="4">
         <f>GEOMEAN(E19:F19)</f>
-        <v>17.888543819998318</v>
+        <v>16</v>
       </c>
       <c r="H19" s="9">
         <v>1</v>
       </c>
       <c r="I19" s="9">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="J19" s="5">
         <f>GEOMEAN(H19:I19)</f>
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="K19" t="s">
         <v>3</v>
@@ -1440,27 +1484,27 @@
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A20" s="14" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="B20" s="2">
-        <v>16.600000000000001</v>
+        <v>16.400000000000002</v>
       </c>
       <c r="C20" s="2">
         <v>100</v>
       </c>
       <c r="D20" s="4">
         <f>GEOMEAN(B20:C20)</f>
-        <v>40.743097574926729</v>
+        <v>40.496913462633174</v>
       </c>
       <c r="E20" s="2">
+        <v>17</v>
+      </c>
+      <c r="F20" s="2">
         <v>16</v>
-      </c>
-      <c r="F20" s="2">
-        <v>32</v>
       </c>
       <c r="G20" s="4">
         <f>GEOMEAN(E20:F20)</f>
-        <v>22.627416997969519</v>
+        <v>16.492422502470642</v>
       </c>
       <c r="H20" s="9">
         <v>1</v>
@@ -1481,127 +1525,163 @@
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>62</v>
-      </c>
-      <c r="B21" s="2"/>
+        <v>12</v>
+      </c>
+      <c r="B21" s="2">
+        <v>16.600000000000001</v>
+      </c>
       <c r="C21" s="2">
         <v>100</v>
       </c>
       <c r="D21" s="4">
         <f>GEOMEAN(B21:C21)</f>
-        <v>100</v>
-      </c>
-      <c r="E21" s="2"/>
+        <v>40.743097574926729</v>
+      </c>
+      <c r="E21" s="2">
+        <v>16</v>
+      </c>
       <c r="F21" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G21" s="4">
         <f>GEOMEAN(E21:F21)</f>
-        <v>21</v>
-      </c>
-      <c r="H21" s="9"/>
+        <v>17.888543819998318</v>
+      </c>
+      <c r="H21" s="9">
+        <v>1</v>
+      </c>
       <c r="I21" s="9">
         <v>100</v>
       </c>
       <c r="J21" s="5">
         <f>GEOMEAN(H21:I21)</f>
-        <v>100</v>
+        <v>10</v>
+      </c>
+      <c r="K21" t="s">
+        <v>3</v>
       </c>
       <c r="L21" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
-        <v>55</v>
-      </c>
-      <c r="B22" s="2"/>
-      <c r="C22" s="2">
-        <v>100</v>
+      <c r="A22" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="B22" s="12">
+        <v>1000</v>
+      </c>
+      <c r="C22" s="12">
+        <v>1000000</v>
       </c>
       <c r="D22" s="4">
         <f>GEOMEAN(B22:C22)</f>
-        <v>100</v>
-      </c>
-      <c r="E22" s="2"/>
-      <c r="F22" s="2">
-        <v>18</v>
+        <v>31622.776601683792</v>
+      </c>
+      <c r="E22" s="12">
+        <v>970</v>
+      </c>
+      <c r="F22" s="12">
+        <v>36</v>
       </c>
       <c r="G22" s="4">
         <f>GEOMEAN(E22:F22)</f>
-        <v>18</v>
-      </c>
-      <c r="H22" s="9"/>
-      <c r="I22" s="9">
-        <v>100</v>
+        <v>186.86893802876924</v>
+      </c>
+      <c r="H22" s="13">
+        <v>1000</v>
+      </c>
+      <c r="I22" s="13">
+        <v>1000000</v>
       </c>
       <c r="J22" s="5">
         <f>GEOMEAN(H22:I22)</f>
-        <v>100</v>
-      </c>
-      <c r="L22" t="s">
+        <v>31622.776601683792</v>
+      </c>
+      <c r="K22" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="L22" s="6" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A23" s="14" t="s">
-        <v>54</v>
-      </c>
-      <c r="B23" s="2"/>
+      <c r="A23" t="s">
+        <v>10</v>
+      </c>
+      <c r="B23" s="2">
+        <v>1000000000</v>
+      </c>
       <c r="C23" s="2">
-        <v>100</v>
+        <v>1000000000</v>
       </c>
       <c r="D23" s="4">
         <f>GEOMEAN(B23:C23)</f>
-        <v>100</v>
-      </c>
-      <c r="E23" s="2"/>
+        <v>1000000000</v>
+      </c>
+      <c r="E23" s="2">
+        <v>1.9000000000000001</v>
+      </c>
       <c r="F23" s="2">
-        <v>13</v>
+        <v>7.6000000000000005</v>
       </c>
       <c r="G23" s="4">
         <f>GEOMEAN(E23:F23)</f>
-        <v>13</v>
-      </c>
-      <c r="H23" s="9"/>
+        <v>3.8000000000000003</v>
+      </c>
+      <c r="H23" s="9">
+        <v>1000000000</v>
+      </c>
       <c r="I23" s="9">
-        <v>100</v>
+        <v>1000000000</v>
       </c>
       <c r="J23" s="5">
         <f>GEOMEAN(H23:I23)</f>
-        <v>100</v>
+        <v>1000000000</v>
+      </c>
+      <c r="K23" t="s">
+        <v>3</v>
       </c>
       <c r="L23" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
-        <v>50</v>
-      </c>
-      <c r="B24" s="2"/>
+      <c r="A24" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="B24" s="2">
+        <v>16.600000000000001</v>
+      </c>
       <c r="C24" s="2">
         <v>100</v>
       </c>
       <c r="D24" s="4">
         <f>GEOMEAN(B24:C24)</f>
-        <v>100</v>
-      </c>
-      <c r="E24" s="2"/>
+        <v>40.743097574926729</v>
+      </c>
+      <c r="E24" s="2">
+        <v>16</v>
+      </c>
       <c r="F24" s="2">
-        <v>18</v>
+        <v>33</v>
       </c>
       <c r="G24" s="4">
         <f>GEOMEAN(E24:F24)</f>
-        <v>18</v>
-      </c>
-      <c r="H24" s="9"/>
+        <v>22.978250586152114</v>
+      </c>
+      <c r="H24" s="9">
+        <v>1</v>
+      </c>
       <c r="I24" s="9">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="J24" s="5">
         <f>GEOMEAN(H24:I24)</f>
-        <v>100</v>
+        <v>1</v>
+      </c>
+      <c r="K24" t="s">
+        <v>3</v>
       </c>
       <c r="L24" t="s">
         <v>3</v>
@@ -1609,488 +1689,479 @@
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>52</v>
-      </c>
-      <c r="B25" s="2"/>
-      <c r="C25" s="2">
-        <v>781</v>
-      </c>
+        <v>42</v>
+      </c>
+      <c r="B25" s="2">
+        <v>15.5</v>
+      </c>
+      <c r="C25" s="2"/>
       <c r="D25" s="4">
         <f>GEOMEAN(B25:C25)</f>
-        <v>781</v>
-      </c>
-      <c r="E25" s="2"/>
-      <c r="F25" s="2">
-        <v>800</v>
-      </c>
+        <v>15.5</v>
+      </c>
+      <c r="E25" s="2">
+        <v>14.999999999999998</v>
+      </c>
+      <c r="F25" s="2"/>
       <c r="G25" s="4">
         <f>GEOMEAN(E25:F25)</f>
-        <v>800</v>
-      </c>
-      <c r="H25" s="9"/>
-      <c r="I25" s="9">
-        <v>0.25</v>
-      </c>
+        <v>14.999999999999998</v>
+      </c>
+      <c r="H25" s="9">
+        <v>1</v>
+      </c>
+      <c r="I25" s="9"/>
       <c r="J25" s="5">
         <f>GEOMEAN(H25:I25)</f>
-        <v>0.25</v>
-      </c>
-      <c r="L25" t="s">
-        <v>4</v>
+        <v>1</v>
+      </c>
+      <c r="K25" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>44</v>
-      </c>
-      <c r="B26" s="2"/>
-      <c r="C26" s="2">
-        <v>872</v>
-      </c>
+        <v>41</v>
+      </c>
+      <c r="B26" s="2">
+        <v>15.5</v>
+      </c>
+      <c r="C26" s="2"/>
       <c r="D26" s="4">
         <f>GEOMEAN(B26:C26)</f>
-        <v>872</v>
-      </c>
-      <c r="E26" s="2"/>
-      <c r="F26" s="2">
-        <v>870</v>
-      </c>
+        <v>15.5</v>
+      </c>
+      <c r="E26" s="2">
+        <v>14.999999999999998</v>
+      </c>
+      <c r="F26" s="2"/>
       <c r="G26" s="4">
         <f>GEOMEAN(E26:F26)</f>
-        <v>870</v>
-      </c>
-      <c r="H26" s="9"/>
-      <c r="I26" s="9">
-        <v>1</v>
-      </c>
+        <v>14.999999999999998</v>
+      </c>
+      <c r="H26" s="9">
+        <v>1</v>
+      </c>
+      <c r="I26" s="9"/>
       <c r="J26" s="5">
         <f>GEOMEAN(H26:I26)</f>
         <v>1</v>
       </c>
-      <c r="L26" t="s">
+      <c r="K26" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>53</v>
-      </c>
-      <c r="B27" s="2"/>
-      <c r="C27" s="2">
-        <v>2300</v>
-      </c>
+        <v>40</v>
+      </c>
+      <c r="B27" s="2">
+        <v>4000000</v>
+      </c>
+      <c r="C27" s="2"/>
       <c r="D27" s="4">
         <f>GEOMEAN(B27:C27)</f>
-        <v>2300</v>
-      </c>
-      <c r="E27" s="2"/>
-      <c r="F27" s="2">
-        <v>2300</v>
-      </c>
+        <v>4000000</v>
+      </c>
+      <c r="E27" s="2">
+        <v>5.1000000000000005</v>
+      </c>
+      <c r="F27" s="2"/>
       <c r="G27" s="4">
         <f>GEOMEAN(E27:F27)</f>
-        <v>2300</v>
-      </c>
-      <c r="H27" s="9"/>
-      <c r="I27" s="9">
-        <v>0.25</v>
-      </c>
+        <v>5.1000000000000005</v>
+      </c>
+      <c r="H27" s="9">
+        <v>1</v>
+      </c>
+      <c r="I27" s="9"/>
       <c r="J27" s="5">
         <f>GEOMEAN(H27:I27)</f>
-        <v>0.25</v>
-      </c>
-      <c r="L27" t="s">
-        <v>5</v>
+        <v>1</v>
+      </c>
+      <c r="K27" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A28" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="B28" s="12">
-        <v>1000</v>
-      </c>
-      <c r="C28" s="12">
-        <v>1000000</v>
-      </c>
+      <c r="A28" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="B28" s="2">
+        <v>15.700000000000001</v>
+      </c>
+      <c r="C28" s="2"/>
       <c r="D28" s="4">
         <f>GEOMEAN(B28:C28)</f>
-        <v>31622.776601683792</v>
-      </c>
-      <c r="E28" s="12">
-        <v>959.99999999999989</v>
-      </c>
-      <c r="F28" s="12">
-        <v>36</v>
-      </c>
+        <v>15.700000000000001</v>
+      </c>
+      <c r="E28" s="2">
+        <v>16</v>
+      </c>
+      <c r="F28" s="2"/>
       <c r="G28" s="4">
         <f>GEOMEAN(E28:F28)</f>
-        <v>185.90320061795597</v>
-      </c>
-      <c r="H28" s="13">
-        <v>1000</v>
-      </c>
-      <c r="I28" s="13">
-        <v>1000000</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="H28" s="9">
+        <v>1</v>
+      </c>
+      <c r="I28" s="9"/>
       <c r="J28" s="5">
         <f>GEOMEAN(H28:I28)</f>
-        <v>31622.776601683792</v>
-      </c>
-      <c r="K28" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="L28" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="K28" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>61</v>
-      </c>
-      <c r="B29" s="2"/>
-      <c r="C29" s="2">
-        <v>11700000</v>
-      </c>
+        <v>38</v>
+      </c>
+      <c r="B29" s="2">
+        <v>964</v>
+      </c>
+      <c r="C29" s="2"/>
       <c r="D29" s="4">
         <f>GEOMEAN(B29:C29)</f>
-        <v>11700000</v>
-      </c>
-      <c r="E29" s="2"/>
-      <c r="F29" s="2">
-        <v>2800</v>
-      </c>
+        <v>964</v>
+      </c>
+      <c r="E29" s="2">
+        <v>979.99999999999989</v>
+      </c>
+      <c r="F29" s="2"/>
       <c r="G29" s="4">
         <f>GEOMEAN(E29:F29)</f>
-        <v>2800</v>
-      </c>
-      <c r="H29" s="9"/>
-      <c r="I29" s="9">
-        <v>12</v>
-      </c>
+        <v>979.99999999999989</v>
+      </c>
+      <c r="H29" s="9">
+        <v>1</v>
+      </c>
+      <c r="I29" s="9"/>
       <c r="J29" s="5">
         <f>GEOMEAN(H29:I29)</f>
-        <v>12</v>
-      </c>
-      <c r="L29" t="s">
-        <v>3</v>
+        <v>1</v>
+      </c>
+      <c r="K29" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>68</v>
-      </c>
-      <c r="B30" s="2"/>
-      <c r="C30" s="2">
-        <v>15500000</v>
-      </c>
+        <v>37</v>
+      </c>
+      <c r="B30" s="2">
+        <v>15.399999999999999</v>
+      </c>
+      <c r="C30" s="2"/>
       <c r="D30" s="4">
         <f>GEOMEAN(B30:C30)</f>
-        <v>15500000</v>
-      </c>
-      <c r="E30" s="2"/>
-      <c r="F30" s="2">
-        <v>54</v>
-      </c>
+        <v>15.399999999999999</v>
+      </c>
+      <c r="E30" s="2">
+        <v>14.999999999999998</v>
+      </c>
+      <c r="F30" s="2"/>
       <c r="G30" s="4">
         <f>GEOMEAN(E30:F30)</f>
-        <v>54</v>
-      </c>
-      <c r="H30" s="9"/>
-      <c r="I30" s="9">
-        <v>1000000</v>
-      </c>
+        <v>14.999999999999998</v>
+      </c>
+      <c r="H30" s="9">
+        <v>1</v>
+      </c>
+      <c r="I30" s="9"/>
       <c r="J30" s="5">
         <f>GEOMEAN(H30:I30)</f>
-        <v>1000000</v>
-      </c>
-      <c r="L30" t="s">
+        <v>1</v>
+      </c>
+      <c r="K30" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>65</v>
-      </c>
-      <c r="B31" s="2"/>
-      <c r="C31" s="2">
-        <v>15500000</v>
-      </c>
+        <v>36</v>
+      </c>
+      <c r="B31" s="2">
+        <v>4000000</v>
+      </c>
+      <c r="C31" s="2"/>
       <c r="D31" s="4">
         <f>GEOMEAN(B31:C31)</f>
-        <v>15500000</v>
-      </c>
-      <c r="E31" s="2"/>
-      <c r="F31" s="2">
-        <v>29</v>
-      </c>
+        <v>4000000</v>
+      </c>
+      <c r="E31" s="2">
+        <v>5.1000000000000005</v>
+      </c>
+      <c r="F31" s="2"/>
       <c r="G31" s="4">
         <f>GEOMEAN(E31:F31)</f>
-        <v>29</v>
-      </c>
-      <c r="H31" s="9"/>
-      <c r="I31" s="9">
-        <v>1000000</v>
-      </c>
+        <v>5.1000000000000005</v>
+      </c>
+      <c r="H31" s="9">
+        <v>1</v>
+      </c>
+      <c r="I31" s="9"/>
       <c r="J31" s="5">
         <f>GEOMEAN(H31:I31)</f>
-        <v>1000000</v>
-      </c>
-      <c r="L31" t="s">
+        <v>1</v>
+      </c>
+      <c r="K31" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="32" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>59</v>
-      </c>
-      <c r="B32" s="2"/>
-      <c r="C32" s="2">
-        <v>15500000</v>
-      </c>
+        <v>35</v>
+      </c>
+      <c r="B32" s="2">
+        <v>15.399999999999999</v>
+      </c>
+      <c r="C32" s="2"/>
       <c r="D32" s="4">
         <f>GEOMEAN(B32:C32)</f>
-        <v>15500000</v>
-      </c>
-      <c r="E32" s="2"/>
-      <c r="F32" s="2">
-        <v>1.3</v>
-      </c>
+        <v>15.399999999999999</v>
+      </c>
+      <c r="E32" s="2">
+        <v>14.999999999999998</v>
+      </c>
+      <c r="F32" s="2"/>
       <c r="G32" s="4">
         <f>GEOMEAN(E32:F32)</f>
-        <v>1.3</v>
-      </c>
-      <c r="H32" s="9"/>
-      <c r="I32" s="9">
-        <v>1000000</v>
-      </c>
+        <v>14.999999999999998</v>
+      </c>
+      <c r="H32" s="9">
+        <v>1</v>
+      </c>
+      <c r="I32" s="9"/>
       <c r="J32" s="5">
         <f>GEOMEAN(H32:I32)</f>
-        <v>1000000</v>
-      </c>
-      <c r="L32" t="s">
+        <v>1</v>
+      </c>
+      <c r="K32" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="33" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>58</v>
-      </c>
-      <c r="B33" s="2"/>
-      <c r="C33" s="2">
-        <v>15500000</v>
-      </c>
+        <v>34</v>
+      </c>
+      <c r="B33" s="2">
+        <v>943</v>
+      </c>
+      <c r="C33" s="2"/>
       <c r="D33" s="4">
         <f>GEOMEAN(B33:C33)</f>
-        <v>15500000</v>
-      </c>
-      <c r="E33" s="2"/>
-      <c r="F33" s="2">
-        <v>1.0999999999999999</v>
-      </c>
+        <v>943</v>
+      </c>
+      <c r="E33" s="2">
+        <v>959.99999999999989</v>
+      </c>
+      <c r="F33" s="2"/>
       <c r="G33" s="4">
         <f>GEOMEAN(E33:F33)</f>
-        <v>1.0999999999999999</v>
-      </c>
-      <c r="H33" s="9"/>
-      <c r="I33" s="9">
-        <v>1000000</v>
-      </c>
+        <v>959.99999999999989</v>
+      </c>
+      <c r="H33" s="9">
+        <v>1</v>
+      </c>
+      <c r="I33" s="9"/>
       <c r="J33" s="5">
         <f>GEOMEAN(H33:I33)</f>
-        <v>1000000</v>
-      </c>
-      <c r="L33" t="s">
-        <v>3</v>
+        <v>1</v>
+      </c>
+      <c r="K33" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="34" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>47</v>
-      </c>
-      <c r="B34" s="2"/>
-      <c r="C34" s="2">
-        <v>15500000</v>
-      </c>
+        <v>33</v>
+      </c>
+      <c r="B34" s="2">
+        <v>1000</v>
+      </c>
+      <c r="C34" s="2"/>
       <c r="D34" s="4">
         <f>GEOMEAN(B34:C34)</f>
-        <v>15500000</v>
-      </c>
-      <c r="E34" s="2"/>
-      <c r="F34" s="2">
-        <v>11</v>
-      </c>
+        <v>1000</v>
+      </c>
+      <c r="E34" s="2">
+        <v>1000</v>
+      </c>
+      <c r="F34" s="2"/>
       <c r="G34" s="4">
         <f>GEOMEAN(E34:F34)</f>
-        <v>11</v>
-      </c>
-      <c r="H34" s="9"/>
-      <c r="I34" s="9">
-        <v>1000000</v>
-      </c>
+        <v>1000</v>
+      </c>
+      <c r="H34" s="9">
+        <v>1000</v>
+      </c>
+      <c r="I34" s="9"/>
       <c r="J34" s="5">
         <f>GEOMEAN(H34:I34)</f>
-        <v>1000000</v>
-      </c>
-      <c r="L34" t="s">
-        <v>3</v>
+        <v>1000</v>
+      </c>
+      <c r="K34" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="35" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>46</v>
-      </c>
-      <c r="B35" s="2"/>
-      <c r="C35" s="2">
-        <v>15500000</v>
-      </c>
+        <v>32</v>
+      </c>
+      <c r="B35" s="2">
+        <v>4000000</v>
+      </c>
+      <c r="C35" s="2"/>
       <c r="D35" s="4">
         <f>GEOMEAN(B35:C35)</f>
-        <v>15500000</v>
-      </c>
-      <c r="E35" s="2"/>
-      <c r="F35" s="2">
-        <v>10</v>
-      </c>
+        <v>4000000</v>
+      </c>
+      <c r="E35" s="2">
+        <v>870</v>
+      </c>
+      <c r="F35" s="2"/>
       <c r="G35" s="4">
         <f>GEOMEAN(E35:F35)</f>
-        <v>10</v>
-      </c>
-      <c r="H35" s="9"/>
-      <c r="I35" s="9">
-        <v>1000000</v>
-      </c>
+        <v>870</v>
+      </c>
+      <c r="H35" s="9">
+        <v>1000</v>
+      </c>
+      <c r="I35" s="9"/>
       <c r="J35" s="5">
         <f>GEOMEAN(H35:I35)</f>
-        <v>1000000</v>
-      </c>
-      <c r="L35" t="s">
-        <v>3</v>
+        <v>1000</v>
+      </c>
+      <c r="K35" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="36" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>45</v>
-      </c>
-      <c r="B36" s="2"/>
-      <c r="C36" s="2">
-        <v>15600000</v>
-      </c>
+        <v>31</v>
+      </c>
+      <c r="B36" s="2">
+        <v>1000</v>
+      </c>
+      <c r="C36" s="2"/>
       <c r="D36" s="4">
         <f>GEOMEAN(B36:C36)</f>
-        <v>15600000</v>
-      </c>
-      <c r="E36" s="2"/>
-      <c r="F36" s="2">
-        <v>870</v>
-      </c>
+        <v>1000</v>
+      </c>
+      <c r="E36" s="2">
+        <v>16</v>
+      </c>
+      <c r="F36" s="2"/>
       <c r="G36" s="4">
         <f>GEOMEAN(E36:F36)</f>
-        <v>870</v>
-      </c>
-      <c r="H36" s="9"/>
-      <c r="I36" s="9">
-        <v>1</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="H36" s="9">
+        <v>1000</v>
+      </c>
+      <c r="I36" s="9"/>
       <c r="J36" s="5">
         <f>GEOMEAN(H36:I36)</f>
-        <v>1</v>
-      </c>
-      <c r="L36" t="s">
-        <v>5</v>
+        <v>1000</v>
+      </c>
+      <c r="K36" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="37" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>67</v>
-      </c>
-      <c r="B37" s="2"/>
-      <c r="C37" s="2">
-        <v>15600000</v>
-      </c>
+        <v>30</v>
+      </c>
+      <c r="B37" s="2">
+        <v>10000000</v>
+      </c>
+      <c r="C37" s="2"/>
       <c r="D37" s="4">
         <f>GEOMEAN(B37:C37)</f>
-        <v>15600000</v>
-      </c>
-      <c r="E37" s="2"/>
-      <c r="F37" s="2">
-        <v>79</v>
-      </c>
+        <v>10000000</v>
+      </c>
+      <c r="E37" s="2">
+        <v>780</v>
+      </c>
+      <c r="F37" s="2"/>
       <c r="G37" s="4">
         <f>GEOMEAN(E37:F37)</f>
-        <v>79</v>
-      </c>
-      <c r="H37" s="9"/>
-      <c r="I37" s="9">
-        <v>100</v>
-      </c>
+        <v>780</v>
+      </c>
+      <c r="H37" s="9">
+        <v>10000000</v>
+      </c>
+      <c r="I37" s="9"/>
       <c r="J37" s="5">
         <f>GEOMEAN(H37:I37)</f>
-        <v>100</v>
-      </c>
-      <c r="L37" t="s">
+        <v>10000000</v>
+      </c>
+      <c r="K37" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="38" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>66</v>
-      </c>
-      <c r="B38" s="2"/>
-      <c r="C38" s="2">
-        <v>15600000</v>
-      </c>
+        <v>29</v>
+      </c>
+      <c r="B38" s="2">
+        <v>10000000</v>
+      </c>
+      <c r="C38" s="2"/>
       <c r="D38" s="4">
         <f>GEOMEAN(B38:C38)</f>
-        <v>15600000</v>
-      </c>
-      <c r="E38" s="2"/>
-      <c r="F38" s="2">
-        <v>830</v>
-      </c>
+        <v>10000000</v>
+      </c>
+      <c r="E38" s="2">
+        <v>979.99999999999989</v>
+      </c>
+      <c r="F38" s="2"/>
       <c r="G38" s="4">
         <f>GEOMEAN(E38:F38)</f>
-        <v>830</v>
-      </c>
-      <c r="H38" s="9"/>
-      <c r="I38" s="9">
-        <v>100</v>
-      </c>
+        <v>979.99999999999989</v>
+      </c>
+      <c r="H38" s="9">
+        <v>10000000</v>
+      </c>
+      <c r="I38" s="9"/>
       <c r="J38" s="5">
         <f>GEOMEAN(H38:I38)</f>
-        <v>100</v>
-      </c>
-      <c r="L38" t="s">
+        <v>10000000</v>
+      </c>
+      <c r="K38" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="39" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>63</v>
+        <v>48</v>
       </c>
       <c r="B39" s="2"/>
       <c r="C39" s="2">
-        <v>15600000</v>
+        <v>1000000000</v>
       </c>
       <c r="D39" s="4">
         <f>GEOMEAN(B39:C39)</f>
-        <v>15600000</v>
+        <v>1000000000</v>
       </c>
       <c r="E39" s="2"/>
       <c r="F39" s="2">
-        <v>4.5</v>
+        <v>7.4999999999999991</v>
       </c>
       <c r="G39" s="4">
         <f>GEOMEAN(E39:F39)</f>
-        <v>4.5</v>
+        <v>7.4999999999999991</v>
       </c>
       <c r="H39" s="9"/>
       <c r="I39" s="9">
-        <v>100</v>
+        <v>1000000000</v>
       </c>
       <c r="J39" s="5">
         <f>GEOMEAN(H39:I39)</f>
-        <v>100</v>
+        <v>1000000000</v>
       </c>
       <c r="L39" t="s">
         <v>3</v>
@@ -2098,63 +2169,63 @@
     </row>
     <row r="40" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>60</v>
+        <v>47</v>
       </c>
       <c r="B40" s="2"/>
       <c r="C40" s="2">
-        <v>15600000</v>
+        <v>1000000000</v>
       </c>
       <c r="D40" s="4">
         <f>GEOMEAN(B40:C40)</f>
-        <v>15600000</v>
+        <v>1000000000</v>
       </c>
       <c r="E40" s="2"/>
       <c r="F40" s="2">
-        <v>780</v>
+        <v>7.6000000000000005</v>
       </c>
       <c r="G40" s="4">
         <f>GEOMEAN(E40:F40)</f>
-        <v>780</v>
+        <v>7.6000000000000005</v>
       </c>
       <c r="H40" s="9"/>
       <c r="I40" s="9">
-        <v>100</v>
+        <v>1000000000</v>
       </c>
       <c r="J40" s="5">
         <f>GEOMEAN(H40:I40)</f>
-        <v>100</v>
+        <v>1000000000</v>
       </c>
       <c r="L40" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="41" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>57</v>
+        <v>67</v>
       </c>
       <c r="B41" s="2"/>
       <c r="C41" s="2">
-        <v>15600000</v>
+        <v>15500000</v>
       </c>
       <c r="D41" s="4">
         <f>GEOMEAN(B41:C41)</f>
-        <v>15600000</v>
+        <v>15500000</v>
       </c>
       <c r="E41" s="2"/>
       <c r="F41" s="2">
-        <v>1.7</v>
+        <v>54</v>
       </c>
       <c r="G41" s="4">
         <f>GEOMEAN(E41:F41)</f>
-        <v>1.7</v>
+        <v>54</v>
       </c>
       <c r="H41" s="9"/>
       <c r="I41" s="9">
-        <v>100</v>
+        <v>1000000</v>
       </c>
       <c r="J41" s="5">
         <f>GEOMEAN(H41:I41)</f>
-        <v>100</v>
+        <v>1000000</v>
       </c>
       <c r="L41" t="s">
         <v>3</v>
@@ -2162,23 +2233,23 @@
     </row>
     <row r="42" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>56</v>
+        <v>66</v>
       </c>
       <c r="B42" s="2"/>
       <c r="C42" s="2">
-        <v>15600000</v>
+        <v>15500000</v>
       </c>
       <c r="D42" s="4">
         <f>GEOMEAN(B42:C42)</f>
-        <v>15600000</v>
+        <v>15500000</v>
       </c>
       <c r="E42" s="2"/>
       <c r="F42" s="2">
-        <v>1.0999999999999999</v>
+        <v>79</v>
       </c>
       <c r="G42" s="4">
         <f>GEOMEAN(E42:F42)</f>
-        <v>1.0999999999999999</v>
+        <v>79</v>
       </c>
       <c r="H42" s="9"/>
       <c r="I42" s="9">
@@ -2194,7 +2265,7 @@
     </row>
     <row r="43" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>51</v>
+        <v>65</v>
       </c>
       <c r="B43" s="2"/>
       <c r="C43" s="2">
@@ -2206,11 +2277,11 @@
       </c>
       <c r="E43" s="2"/>
       <c r="F43" s="2">
-        <v>1.5</v>
+        <v>830</v>
       </c>
       <c r="G43" s="4">
         <f>GEOMEAN(E43:F43)</f>
-        <v>1.5</v>
+        <v>830</v>
       </c>
       <c r="H43" s="9"/>
       <c r="I43" s="9">
@@ -2221,7 +2292,7 @@
         <v>100</v>
       </c>
       <c r="L43" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="44" spans="1:12" x14ac:dyDescent="0.25">
@@ -2230,27 +2301,27 @@
       </c>
       <c r="B44" s="2"/>
       <c r="C44" s="2">
-        <v>15800000.000000002</v>
+        <v>15500000</v>
       </c>
       <c r="D44" s="4">
         <f>GEOMEAN(B44:C44)</f>
-        <v>15800000.000000002</v>
+        <v>15500000</v>
       </c>
       <c r="E44" s="2"/>
       <c r="F44" s="2">
-        <v>54</v>
+        <v>29.999999999999996</v>
       </c>
       <c r="G44" s="4">
         <f>GEOMEAN(E44:F44)</f>
-        <v>54</v>
+        <v>29.999999999999996</v>
       </c>
       <c r="H44" s="9"/>
       <c r="I44" s="9">
-        <v>100</v>
+        <v>1000000</v>
       </c>
       <c r="J44" s="5">
         <f>GEOMEAN(H44:I44)</f>
-        <v>100</v>
+        <v>1000000</v>
       </c>
       <c r="L44" t="s">
         <v>3</v>
@@ -2258,40 +2329,31 @@
     </row>
     <row r="45" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>11</v>
-      </c>
-      <c r="B45" s="2">
-        <v>1000000000</v>
-      </c>
+        <v>63</v>
+      </c>
+      <c r="B45" s="2"/>
       <c r="C45" s="2">
-        <v>1000000000</v>
+        <v>15800000.000000002</v>
       </c>
       <c r="D45" s="4">
         <f>GEOMEAN(B45:C45)</f>
-        <v>1000000000</v>
-      </c>
-      <c r="E45" s="2">
-        <v>1.9000000000000001</v>
-      </c>
+        <v>15800000.000000002</v>
+      </c>
+      <c r="E45" s="2"/>
       <c r="F45" s="2">
-        <v>7.4999999999999991</v>
+        <v>54</v>
       </c>
       <c r="G45" s="4">
         <f>GEOMEAN(E45:F45)</f>
-        <v>3.7749172176353749</v>
-      </c>
-      <c r="H45" s="9">
-        <v>1000000000</v>
-      </c>
+        <v>54</v>
+      </c>
+      <c r="H45" s="9"/>
       <c r="I45" s="9">
-        <v>1000000000</v>
+        <v>100</v>
       </c>
       <c r="J45" s="5">
         <f>GEOMEAN(H45:I45)</f>
-        <v>1000000000</v>
-      </c>
-      <c r="K45" t="s">
-        <v>3</v>
+        <v>100</v>
       </c>
       <c r="L45" t="s">
         <v>3</v>
@@ -2299,31 +2361,31 @@
     </row>
     <row r="46" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>49</v>
+        <v>62</v>
       </c>
       <c r="B46" s="2"/>
       <c r="C46" s="2">
-        <v>1000000000</v>
+        <v>15600000</v>
       </c>
       <c r="D46" s="4">
         <f>GEOMEAN(B46:C46)</f>
-        <v>1000000000</v>
+        <v>15600000</v>
       </c>
       <c r="E46" s="2"/>
       <c r="F46" s="2">
-        <v>7.6000000000000005</v>
+        <v>4.5</v>
       </c>
       <c r="G46" s="4">
         <f>GEOMEAN(E46:F46)</f>
-        <v>7.6000000000000005</v>
+        <v>4.5</v>
       </c>
       <c r="H46" s="9"/>
       <c r="I46" s="9">
-        <v>1000000000</v>
+        <v>100</v>
       </c>
       <c r="J46" s="5">
         <f>GEOMEAN(H46:I46)</f>
-        <v>1000000000</v>
+        <v>100</v>
       </c>
       <c r="L46" t="s">
         <v>3</v>
@@ -2331,31 +2393,31 @@
     </row>
     <row r="47" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>48</v>
+        <v>61</v>
       </c>
       <c r="B47" s="2"/>
       <c r="C47" s="2">
-        <v>1000000000</v>
+        <v>100</v>
       </c>
       <c r="D47" s="4">
         <f>GEOMEAN(B47:C47)</f>
-        <v>1000000000</v>
+        <v>100</v>
       </c>
       <c r="E47" s="2"/>
       <c r="F47" s="2">
-        <v>7.4999999999999991</v>
+        <v>21</v>
       </c>
       <c r="G47" s="4">
         <f>GEOMEAN(E47:F47)</f>
-        <v>7.4999999999999991</v>
+        <v>21</v>
       </c>
       <c r="H47" s="9"/>
       <c r="I47" s="9">
-        <v>1000000000</v>
+        <v>100</v>
       </c>
       <c r="J47" s="5">
         <f>GEOMEAN(H47:I47)</f>
-        <v>1000000000</v>
+        <v>100</v>
       </c>
       <c r="L47" t="s">
         <v>3</v>
@@ -2363,456 +2425,456 @@
     </row>
     <row r="48" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>43</v>
-      </c>
-      <c r="B48" s="2">
-        <v>15.399999999999999</v>
-      </c>
-      <c r="C48" s="2"/>
+        <v>60</v>
+      </c>
+      <c r="B48" s="2"/>
+      <c r="C48" s="2">
+        <v>11700000</v>
+      </c>
       <c r="D48" s="4">
         <f>GEOMEAN(B48:C48)</f>
-        <v>15.399999999999999</v>
-      </c>
-      <c r="E48" s="2">
-        <v>14.999999999999998</v>
-      </c>
-      <c r="F48" s="2"/>
+        <v>11700000</v>
+      </c>
+      <c r="E48" s="2"/>
+      <c r="F48" s="2">
+        <v>2800</v>
+      </c>
       <c r="G48" s="4">
         <f>GEOMEAN(E48:F48)</f>
-        <v>14.999999999999998</v>
-      </c>
-      <c r="H48" s="9">
-        <v>1</v>
-      </c>
-      <c r="I48" s="9"/>
+        <v>2800</v>
+      </c>
+      <c r="H48" s="9"/>
+      <c r="I48" s="9">
+        <v>12</v>
+      </c>
       <c r="J48" s="5">
         <f>GEOMEAN(H48:I48)</f>
-        <v>1</v>
-      </c>
-      <c r="K48" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
+        <v>12</v>
+      </c>
+      <c r="L48" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>42</v>
-      </c>
-      <c r="B49" s="2">
-        <v>15.5</v>
-      </c>
-      <c r="C49" s="2"/>
+        <v>59</v>
+      </c>
+      <c r="B49" s="2"/>
+      <c r="C49" s="2">
+        <v>15600000</v>
+      </c>
       <c r="D49" s="4">
         <f>GEOMEAN(B49:C49)</f>
-        <v>15.5</v>
-      </c>
-      <c r="E49" s="2">
-        <v>14.999999999999998</v>
-      </c>
-      <c r="F49" s="2"/>
+        <v>15600000</v>
+      </c>
+      <c r="E49" s="2"/>
+      <c r="F49" s="2">
+        <v>780</v>
+      </c>
       <c r="G49" s="4">
         <f>GEOMEAN(E49:F49)</f>
-        <v>14.999999999999998</v>
-      </c>
-      <c r="H49" s="9">
-        <v>1</v>
-      </c>
-      <c r="I49" s="9"/>
+        <v>780</v>
+      </c>
+      <c r="H49" s="9"/>
+      <c r="I49" s="9">
+        <v>100</v>
+      </c>
       <c r="J49" s="5">
         <f>GEOMEAN(H49:I49)</f>
-        <v>1</v>
-      </c>
-      <c r="K49" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
+        <v>100</v>
+      </c>
+      <c r="L49" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="50" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>38</v>
-      </c>
-      <c r="B50" s="2">
-        <v>15.5</v>
-      </c>
-      <c r="C50" s="2"/>
+        <v>58</v>
+      </c>
+      <c r="B50" s="2"/>
+      <c r="C50" s="2">
+        <v>15699999.999999998</v>
+      </c>
       <c r="D50" s="4">
         <f>GEOMEAN(B50:C50)</f>
-        <v>15.5</v>
-      </c>
-      <c r="E50" s="2">
-        <v>14.999999999999998</v>
-      </c>
-      <c r="F50" s="2"/>
+        <v>15699999.999999998</v>
+      </c>
+      <c r="E50" s="2"/>
+      <c r="F50" s="2">
+        <v>1.3</v>
+      </c>
       <c r="G50" s="4">
         <f>GEOMEAN(E50:F50)</f>
-        <v>14.999999999999998</v>
-      </c>
-      <c r="H50" s="9">
-        <v>1</v>
-      </c>
-      <c r="I50" s="9"/>
+        <v>1.3</v>
+      </c>
+      <c r="H50" s="9"/>
+      <c r="I50" s="9">
+        <v>1000000</v>
+      </c>
       <c r="J50" s="5">
         <f>GEOMEAN(H50:I50)</f>
-        <v>1</v>
-      </c>
-      <c r="K50" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
+        <v>1000000</v>
+      </c>
+      <c r="L50" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="51" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>36</v>
-      </c>
-      <c r="B51" s="2">
-        <v>15.5</v>
-      </c>
-      <c r="C51" s="2"/>
+        <v>57</v>
+      </c>
+      <c r="B51" s="2"/>
+      <c r="C51" s="2">
+        <v>15500000</v>
+      </c>
       <c r="D51" s="4">
         <f>GEOMEAN(B51:C51)</f>
-        <v>15.5</v>
-      </c>
-      <c r="E51" s="2">
-        <v>14.999999999999998</v>
-      </c>
-      <c r="F51" s="2"/>
+        <v>15500000</v>
+      </c>
+      <c r="E51" s="2"/>
+      <c r="F51" s="2">
+        <v>1.0999999999999999</v>
+      </c>
       <c r="G51" s="4">
         <f>GEOMEAN(E51:F51)</f>
-        <v>14.999999999999998</v>
-      </c>
-      <c r="H51" s="9">
-        <v>1</v>
-      </c>
-      <c r="I51" s="9"/>
+        <v>1.0999999999999999</v>
+      </c>
+      <c r="H51" s="9"/>
+      <c r="I51" s="9">
+        <v>1000000</v>
+      </c>
       <c r="J51" s="5">
         <f>GEOMEAN(H51:I51)</f>
-        <v>1</v>
-      </c>
-      <c r="K51" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A52" s="14" t="s">
-        <v>40</v>
-      </c>
-      <c r="B52" s="2">
-        <v>15.700000000000001</v>
-      </c>
-      <c r="C52" s="2"/>
+        <v>1000000</v>
+      </c>
+      <c r="L51" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="52" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>56</v>
+      </c>
+      <c r="B52" s="2"/>
+      <c r="C52" s="2">
+        <v>15600000</v>
+      </c>
       <c r="D52" s="4">
         <f>GEOMEAN(B52:C52)</f>
-        <v>15.700000000000001</v>
-      </c>
-      <c r="E52" s="2">
-        <v>16</v>
-      </c>
-      <c r="F52" s="2"/>
+        <v>15600000</v>
+      </c>
+      <c r="E52" s="2"/>
+      <c r="F52" s="2">
+        <v>1.7</v>
+      </c>
       <c r="G52" s="4">
         <f>GEOMEAN(E52:F52)</f>
-        <v>16</v>
-      </c>
-      <c r="H52" s="9">
-        <v>1</v>
-      </c>
-      <c r="I52" s="9"/>
+        <v>1.7</v>
+      </c>
+      <c r="H52" s="9"/>
+      <c r="I52" s="9">
+        <v>100</v>
+      </c>
       <c r="J52" s="5">
         <f>GEOMEAN(H52:I52)</f>
-        <v>1</v>
-      </c>
-      <c r="K52" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
+        <v>100</v>
+      </c>
+      <c r="L52" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>35</v>
-      </c>
-      <c r="B53" s="2">
-        <v>927</v>
-      </c>
-      <c r="C53" s="2"/>
+        <v>55</v>
+      </c>
+      <c r="B53" s="2"/>
+      <c r="C53" s="2">
+        <v>15600000</v>
+      </c>
       <c r="D53" s="4">
         <f>GEOMEAN(B53:C53)</f>
-        <v>927</v>
-      </c>
-      <c r="E53" s="2">
-        <v>940</v>
-      </c>
-      <c r="F53" s="2"/>
+        <v>15600000</v>
+      </c>
+      <c r="E53" s="2"/>
+      <c r="F53" s="2">
+        <v>1.0999999999999999</v>
+      </c>
       <c r="G53" s="4">
         <f>GEOMEAN(E53:F53)</f>
-        <v>940</v>
-      </c>
-      <c r="H53" s="9">
-        <v>1</v>
-      </c>
-      <c r="I53" s="9"/>
+        <v>1.0999999999999999</v>
+      </c>
+      <c r="H53" s="9"/>
+      <c r="I53" s="9">
+        <v>100</v>
+      </c>
       <c r="J53" s="5">
         <f>GEOMEAN(H53:I53)</f>
-        <v>1</v>
-      </c>
-      <c r="K53" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
+        <v>100</v>
+      </c>
+      <c r="L53" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="54" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>39</v>
-      </c>
-      <c r="B54" s="2">
-        <v>948</v>
-      </c>
-      <c r="C54" s="2"/>
+        <v>54</v>
+      </c>
+      <c r="B54" s="2"/>
+      <c r="C54" s="2">
+        <v>100</v>
+      </c>
       <c r="D54" s="4">
         <f>GEOMEAN(B54:C54)</f>
-        <v>948</v>
-      </c>
-      <c r="E54" s="2">
-        <v>959.99999999999989</v>
-      </c>
-      <c r="F54" s="2"/>
+        <v>100</v>
+      </c>
+      <c r="E54" s="2"/>
+      <c r="F54" s="2">
+        <v>18</v>
+      </c>
       <c r="G54" s="4">
         <f>GEOMEAN(E54:F54)</f>
-        <v>959.99999999999989</v>
-      </c>
-      <c r="H54" s="9">
-        <v>1</v>
-      </c>
-      <c r="I54" s="9"/>
+        <v>18</v>
+      </c>
+      <c r="H54" s="9"/>
+      <c r="I54" s="9">
+        <v>100</v>
+      </c>
       <c r="J54" s="5">
         <f>GEOMEAN(H54:I54)</f>
-        <v>1</v>
-      </c>
-      <c r="K54" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A55" t="s">
-        <v>34</v>
-      </c>
-      <c r="B55" s="2">
-        <v>1000</v>
-      </c>
-      <c r="C55" s="2"/>
+        <v>100</v>
+      </c>
+      <c r="L54" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A55" s="14" t="s">
+        <v>53</v>
+      </c>
+      <c r="B55" s="2"/>
+      <c r="C55" s="2">
+        <v>100</v>
+      </c>
       <c r="D55" s="4">
         <f>GEOMEAN(B55:C55)</f>
-        <v>1000</v>
-      </c>
-      <c r="E55" s="2">
-        <v>1000</v>
-      </c>
-      <c r="F55" s="2"/>
+        <v>100</v>
+      </c>
+      <c r="E55" s="2"/>
+      <c r="F55" s="2">
+        <v>13</v>
+      </c>
       <c r="G55" s="4">
         <f>GEOMEAN(E55:F55)</f>
-        <v>1000</v>
-      </c>
-      <c r="H55" s="9">
-        <v>1000</v>
-      </c>
-      <c r="I55" s="9"/>
+        <v>13</v>
+      </c>
+      <c r="H55" s="9"/>
+      <c r="I55" s="9">
+        <v>100</v>
+      </c>
       <c r="J55" s="5">
         <f>GEOMEAN(H55:I55)</f>
-        <v>1000</v>
-      </c>
-      <c r="K55" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
+        <v>100</v>
+      </c>
+      <c r="L55" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="56" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>32</v>
-      </c>
-      <c r="B56" s="2">
-        <v>1000</v>
-      </c>
-      <c r="C56" s="2"/>
+        <v>52</v>
+      </c>
+      <c r="B56" s="2"/>
+      <c r="C56" s="2">
+        <v>2200</v>
+      </c>
       <c r="D56" s="4">
         <f>GEOMEAN(B56:C56)</f>
-        <v>1000</v>
-      </c>
-      <c r="E56" s="2">
-        <v>16</v>
-      </c>
-      <c r="F56" s="2"/>
+        <v>2200</v>
+      </c>
+      <c r="E56" s="2"/>
+      <c r="F56" s="2">
+        <v>2300</v>
+      </c>
       <c r="G56" s="4">
         <f>GEOMEAN(E56:F56)</f>
-        <v>16</v>
-      </c>
-      <c r="H56" s="9">
-        <v>1000</v>
-      </c>
-      <c r="I56" s="9"/>
+        <v>2300</v>
+      </c>
+      <c r="H56" s="9"/>
+      <c r="I56" s="9">
+        <v>0.25</v>
+      </c>
       <c r="J56" s="5">
         <f>GEOMEAN(H56:I56)</f>
-        <v>1000</v>
-      </c>
-      <c r="K56" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
+        <v>0.25</v>
+      </c>
+      <c r="L56" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="57" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>41</v>
-      </c>
-      <c r="B57" s="2">
-        <v>4000000</v>
-      </c>
-      <c r="C57" s="2"/>
+        <v>51</v>
+      </c>
+      <c r="B57" s="2"/>
+      <c r="C57" s="2">
+        <v>781</v>
+      </c>
       <c r="D57" s="4">
         <f>GEOMEAN(B57:C57)</f>
-        <v>4000000</v>
-      </c>
-      <c r="E57" s="2">
-        <v>5</v>
-      </c>
-      <c r="F57" s="2"/>
+        <v>781</v>
+      </c>
+      <c r="E57" s="2"/>
+      <c r="F57" s="2">
+        <v>800</v>
+      </c>
       <c r="G57" s="4">
         <f>GEOMEAN(E57:F57)</f>
-        <v>5</v>
-      </c>
-      <c r="H57" s="9">
-        <v>1</v>
-      </c>
-      <c r="I57" s="9"/>
+        <v>800</v>
+      </c>
+      <c r="H57" s="9"/>
+      <c r="I57" s="9">
+        <v>0.25</v>
+      </c>
       <c r="J57" s="5">
         <f>GEOMEAN(H57:I57)</f>
-        <v>1</v>
-      </c>
-      <c r="K57" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
+        <v>0.25</v>
+      </c>
+      <c r="L57" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="58" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>37</v>
-      </c>
-      <c r="B58" s="2">
-        <v>4000000</v>
-      </c>
-      <c r="C58" s="2"/>
+        <v>50</v>
+      </c>
+      <c r="B58" s="2"/>
+      <c r="C58" s="2">
+        <v>15600000</v>
+      </c>
       <c r="D58" s="4">
         <f>GEOMEAN(B58:C58)</f>
-        <v>4000000</v>
-      </c>
-      <c r="E58" s="2">
-        <v>5.1000000000000005</v>
-      </c>
-      <c r="F58" s="2"/>
+        <v>15600000</v>
+      </c>
+      <c r="E58" s="2"/>
+      <c r="F58" s="2">
+        <v>1.5</v>
+      </c>
       <c r="G58" s="4">
         <f>GEOMEAN(E58:F58)</f>
-        <v>5.1000000000000005</v>
-      </c>
-      <c r="H58" s="9">
-        <v>1</v>
-      </c>
-      <c r="I58" s="9"/>
+        <v>1.5</v>
+      </c>
+      <c r="H58" s="9"/>
+      <c r="I58" s="9">
+        <v>100</v>
+      </c>
       <c r="J58" s="5">
         <f>GEOMEAN(H58:I58)</f>
-        <v>1</v>
-      </c>
-      <c r="K58" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
+        <v>100</v>
+      </c>
+      <c r="L58" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="59" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>33</v>
-      </c>
-      <c r="B59" s="2">
-        <v>4000000</v>
-      </c>
-      <c r="C59" s="2"/>
+        <v>49</v>
+      </c>
+      <c r="B59" s="2"/>
+      <c r="C59" s="2">
+        <v>100</v>
+      </c>
       <c r="D59" s="4">
         <f>GEOMEAN(B59:C59)</f>
-        <v>4000000</v>
-      </c>
-      <c r="E59" s="2">
-        <v>850</v>
-      </c>
-      <c r="F59" s="2"/>
+        <v>100</v>
+      </c>
+      <c r="E59" s="2"/>
+      <c r="F59" s="2">
+        <v>19</v>
+      </c>
       <c r="G59" s="4">
         <f>GEOMEAN(E59:F59)</f>
-        <v>850</v>
-      </c>
-      <c r="H59" s="9">
-        <v>1000</v>
-      </c>
-      <c r="I59" s="9"/>
+        <v>19</v>
+      </c>
+      <c r="H59" s="9"/>
+      <c r="I59" s="9">
+        <v>100</v>
+      </c>
       <c r="J59" s="5">
         <f>GEOMEAN(H59:I59)</f>
-        <v>1000</v>
-      </c>
-      <c r="K59" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
+        <v>100</v>
+      </c>
+      <c r="L59" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>30</v>
-      </c>
-      <c r="B60" s="2">
-        <v>9900000</v>
-      </c>
-      <c r="C60" s="2"/>
+        <v>46</v>
+      </c>
+      <c r="B60" s="2"/>
+      <c r="C60" s="2">
+        <v>15800000.000000002</v>
+      </c>
       <c r="D60" s="4">
         <f>GEOMEAN(B60:C60)</f>
-        <v>9900000</v>
-      </c>
-      <c r="E60" s="2">
-        <v>970</v>
-      </c>
-      <c r="F60" s="2"/>
+        <v>15800000.000000002</v>
+      </c>
+      <c r="E60" s="2"/>
+      <c r="F60" s="2">
+        <v>11</v>
+      </c>
       <c r="G60" s="4">
         <f>GEOMEAN(E60:F60)</f>
-        <v>970</v>
-      </c>
-      <c r="H60" s="9">
-        <v>9900000</v>
-      </c>
-      <c r="I60" s="9"/>
+        <v>11</v>
+      </c>
+      <c r="H60" s="9"/>
+      <c r="I60" s="9">
+        <v>1000000</v>
+      </c>
       <c r="J60" s="5">
         <f>GEOMEAN(H60:I60)</f>
-        <v>9900000</v>
-      </c>
-      <c r="K60" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
+        <v>1000000</v>
+      </c>
+      <c r="L60" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>31</v>
-      </c>
-      <c r="B61" s="2">
-        <v>10000000</v>
-      </c>
-      <c r="C61" s="2"/>
+        <v>45</v>
+      </c>
+      <c r="B61" s="2"/>
+      <c r="C61" s="2">
+        <v>15800000.000000002</v>
+      </c>
       <c r="D61" s="4">
         <f>GEOMEAN(B61:C61)</f>
-        <v>10000000</v>
-      </c>
-      <c r="E61" s="2">
-        <v>770</v>
-      </c>
-      <c r="F61" s="2"/>
+        <v>15800000.000000002</v>
+      </c>
+      <c r="E61" s="2"/>
+      <c r="F61" s="2">
+        <v>10</v>
+      </c>
       <c r="G61" s="4">
         <f>GEOMEAN(E61:F61)</f>
-        <v>770</v>
-      </c>
-      <c r="H61" s="9">
-        <v>10000000</v>
-      </c>
-      <c r="I61" s="9"/>
+        <v>10</v>
+      </c>
+      <c r="H61" s="9"/>
+      <c r="I61" s="9">
+        <v>1000000</v>
+      </c>
       <c r="J61" s="5">
         <f>GEOMEAN(H61:I61)</f>
-        <v>10000000</v>
-      </c>
-      <c r="K61" t="s">
+        <v>1000000</v>
+      </c>
+      <c r="L61" t="s">
         <v>3</v>
       </c>
     </row>
   </sheetData>
   <autoFilter ref="A2:L2" xr:uid="{5226C7DB-4522-4607-A447-60A0B57A6F3E}">
     <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A3:L61">
-      <sortCondition ref="C2"/>
+      <sortCondition ref="A2"/>
     </sortState>
   </autoFilter>
   <mergeCells count="4">
@@ -2821,7 +2883,7 @@
     <mergeCell ref="E1:G1"/>
     <mergeCell ref="H1:J1"/>
   </mergeCells>
-  <conditionalFormatting sqref="D3:D61">
+  <conditionalFormatting sqref="B3:B61">
     <cfRule type="colorScale" priority="9">
       <colorScale>
         <cfvo type="min"/>
@@ -2833,7 +2895,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G3:G61">
+  <conditionalFormatting sqref="C3:C61">
     <cfRule type="colorScale" priority="8">
       <colorScale>
         <cfvo type="min"/>
@@ -2845,7 +2907,19 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J3:J61">
+  <conditionalFormatting sqref="D3:D61">
+    <cfRule type="colorScale" priority="12">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E3:E61">
     <cfRule type="colorScale" priority="7">
       <colorScale>
         <cfvo type="min"/>
@@ -2857,7 +2931,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B3:B61">
+  <conditionalFormatting sqref="F3:F61">
     <cfRule type="colorScale" priority="6">
       <colorScale>
         <cfvo type="min"/>
@@ -2869,7 +2943,19 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C3:C61">
+  <conditionalFormatting sqref="G3:G61">
+    <cfRule type="colorScale" priority="11">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H3:H61">
     <cfRule type="colorScale" priority="5">
       <colorScale>
         <cfvo type="min"/>
@@ -2881,7 +2967,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E3:E61">
+  <conditionalFormatting sqref="I3:I61">
     <cfRule type="colorScale" priority="4">
       <colorScale>
         <cfvo type="min"/>
@@ -2893,7 +2979,19 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F3:F61">
+  <conditionalFormatting sqref="J3:J61">
+    <cfRule type="colorScale" priority="10">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B3:C61">
     <cfRule type="colorScale" priority="3">
       <colorScale>
         <cfvo type="min"/>
@@ -2905,7 +3003,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H3:H61">
+  <conditionalFormatting sqref="E3:F61">
     <cfRule type="colorScale" priority="2">
       <colorScale>
         <cfvo type="min"/>
@@ -2917,7 +3015,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I3:I61">
+  <conditionalFormatting sqref="H3:I61">
     <cfRule type="colorScale" priority="1">
       <colorScale>
         <cfvo type="min"/>
@@ -2931,4 +3029,1355 @@
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EECD589F-4515-4A14-B89D-EFC86F4A6209}">
+  <dimension ref="A1:I54"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="N13" sqref="N13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="48" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="14" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="15" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="8" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.42578125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" s="10" customFormat="1" ht="31.5" x14ac:dyDescent="0.5">
+      <c r="A1" s="11" t="s">
+        <v>78</v>
+      </c>
+      <c r="B1" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="15"/>
+      <c r="D1" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" s="15"/>
+      <c r="F1" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="G1" s="15"/>
+      <c r="H1" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="15"/>
+    </row>
+    <row r="2" spans="1:9" s="7" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A2" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="F2" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="G2" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="H2" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="I2" s="7" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>71</v>
+      </c>
+      <c r="B3" s="2">
+        <v>29.6</v>
+      </c>
+      <c r="C3" s="2">
+        <v>28.8</v>
+      </c>
+      <c r="D3" s="2">
+        <v>29</v>
+      </c>
+      <c r="E3" s="2">
+        <v>29</v>
+      </c>
+      <c r="F3" s="9">
+        <v>0.25</v>
+      </c>
+      <c r="G3" s="9">
+        <v>0.25</v>
+      </c>
+      <c r="H3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>72</v>
+      </c>
+      <c r="B4" s="2">
+        <v>9.8000000000000007</v>
+      </c>
+      <c r="C4" s="2">
+        <v>9.8000000000000007</v>
+      </c>
+      <c r="D4" s="2">
+        <v>9.3000000000000007</v>
+      </c>
+      <c r="E4" s="2">
+        <v>9.1</v>
+      </c>
+      <c r="F4" s="9">
+        <v>0.25</v>
+      </c>
+      <c r="G4" s="9">
+        <v>0.25</v>
+      </c>
+      <c r="H4" t="s">
+        <v>3</v>
+      </c>
+      <c r="I4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>73</v>
+      </c>
+      <c r="B5" s="2">
+        <v>17</v>
+      </c>
+      <c r="C5" s="2">
+        <v>16</v>
+      </c>
+      <c r="D5" s="2">
+        <v>17</v>
+      </c>
+      <c r="E5" s="2">
+        <v>17</v>
+      </c>
+      <c r="F5" s="9">
+        <v>0.25</v>
+      </c>
+      <c r="G5" s="9">
+        <v>0.25</v>
+      </c>
+      <c r="H5" t="s">
+        <v>3</v>
+      </c>
+      <c r="I5" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>74</v>
+      </c>
+      <c r="B6" s="2">
+        <v>6.4</v>
+      </c>
+      <c r="C6" s="2">
+        <v>6.3</v>
+      </c>
+      <c r="D6" s="2">
+        <v>6.4</v>
+      </c>
+      <c r="E6" s="2">
+        <v>6.3</v>
+      </c>
+      <c r="F6" s="9">
+        <v>0.25</v>
+      </c>
+      <c r="G6" s="9">
+        <v>0.25</v>
+      </c>
+      <c r="H6" t="s">
+        <v>3</v>
+      </c>
+      <c r="I6" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A7" s="16" t="s">
+        <v>75</v>
+      </c>
+      <c r="B7" s="2">
+        <v>9.3000000000000007</v>
+      </c>
+      <c r="C7" s="2">
+        <v>9.3000000000000007</v>
+      </c>
+      <c r="D7" s="2">
+        <v>9.1999999999999993</v>
+      </c>
+      <c r="E7" s="2">
+        <v>9</v>
+      </c>
+      <c r="F7" s="9">
+        <v>0.25</v>
+      </c>
+      <c r="G7" s="9">
+        <v>0.25</v>
+      </c>
+      <c r="H7" t="s">
+        <v>3</v>
+      </c>
+      <c r="I7" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>76</v>
+      </c>
+      <c r="B8" s="2">
+        <v>31.599999999999998</v>
+      </c>
+      <c r="C8" s="2">
+        <v>31.599999999999998</v>
+      </c>
+      <c r="D8" s="2">
+        <v>31</v>
+      </c>
+      <c r="E8" s="2">
+        <v>32</v>
+      </c>
+      <c r="F8" s="9">
+        <v>0.25</v>
+      </c>
+      <c r="G8" s="9">
+        <v>0.25</v>
+      </c>
+      <c r="H8" t="s">
+        <v>3</v>
+      </c>
+      <c r="I8" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A9" s="16" t="s">
+        <v>77</v>
+      </c>
+      <c r="B9" s="2">
+        <v>11.9</v>
+      </c>
+      <c r="C9" s="2">
+        <v>11.799999999999999</v>
+      </c>
+      <c r="D9" s="2">
+        <v>12</v>
+      </c>
+      <c r="E9" s="2">
+        <v>12</v>
+      </c>
+      <c r="F9" s="9">
+        <v>0.25</v>
+      </c>
+      <c r="G9" s="9">
+        <v>0.25</v>
+      </c>
+      <c r="H9" t="s">
+        <v>3</v>
+      </c>
+      <c r="I9" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>44</v>
+      </c>
+      <c r="B10" s="2"/>
+      <c r="C10" s="2">
+        <v>15600000</v>
+      </c>
+      <c r="D10" s="2"/>
+      <c r="E10" s="2">
+        <v>870</v>
+      </c>
+      <c r="F10" s="9"/>
+      <c r="G10" s="9">
+        <v>1</v>
+      </c>
+      <c r="I10" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>43</v>
+      </c>
+      <c r="B11" s="2"/>
+      <c r="C11" s="2">
+        <v>872</v>
+      </c>
+      <c r="D11" s="2"/>
+      <c r="E11" s="2">
+        <v>870</v>
+      </c>
+      <c r="F11" s="9"/>
+      <c r="G11" s="9">
+        <v>1</v>
+      </c>
+      <c r="I11" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>14</v>
+      </c>
+      <c r="B12" s="2">
+        <v>16.7</v>
+      </c>
+      <c r="C12" s="2">
+        <v>100</v>
+      </c>
+      <c r="D12" s="2">
+        <v>16</v>
+      </c>
+      <c r="E12" s="2">
+        <v>16</v>
+      </c>
+      <c r="F12" s="9">
+        <v>1</v>
+      </c>
+      <c r="G12" s="9">
+        <v>1</v>
+      </c>
+      <c r="H12" t="s">
+        <v>3</v>
+      </c>
+      <c r="I12" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A13" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="B13" s="2">
+        <v>16.400000000000002</v>
+      </c>
+      <c r="C13" s="2">
+        <v>100</v>
+      </c>
+      <c r="D13" s="2">
+        <v>17</v>
+      </c>
+      <c r="E13" s="2">
+        <v>16</v>
+      </c>
+      <c r="F13" s="9">
+        <v>1</v>
+      </c>
+      <c r="G13" s="9">
+        <v>1</v>
+      </c>
+      <c r="H13" t="s">
+        <v>3</v>
+      </c>
+      <c r="I13" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>12</v>
+      </c>
+      <c r="B14" s="2">
+        <v>16.600000000000001</v>
+      </c>
+      <c r="C14" s="2">
+        <v>100</v>
+      </c>
+      <c r="D14" s="2">
+        <v>16</v>
+      </c>
+      <c r="E14" s="2">
+        <v>20</v>
+      </c>
+      <c r="F14" s="9">
+        <v>1</v>
+      </c>
+      <c r="G14" s="9">
+        <v>100</v>
+      </c>
+      <c r="H14" t="s">
+        <v>3</v>
+      </c>
+      <c r="I14" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A15" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="B15" s="12">
+        <v>1000</v>
+      </c>
+      <c r="C15" s="12">
+        <v>1000000</v>
+      </c>
+      <c r="D15" s="12">
+        <v>970</v>
+      </c>
+      <c r="E15" s="12">
+        <v>36</v>
+      </c>
+      <c r="F15" s="13">
+        <v>1000</v>
+      </c>
+      <c r="G15" s="13">
+        <v>1000000</v>
+      </c>
+      <c r="H15" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="I15" s="6" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>10</v>
+      </c>
+      <c r="B16" s="2">
+        <v>1000000000</v>
+      </c>
+      <c r="C16" s="2">
+        <v>1000000000</v>
+      </c>
+      <c r="D16" s="2">
+        <v>1.9000000000000001</v>
+      </c>
+      <c r="E16" s="2">
+        <v>7.6000000000000005</v>
+      </c>
+      <c r="F16" s="9">
+        <v>1000000000</v>
+      </c>
+      <c r="G16" s="9">
+        <v>1000000000</v>
+      </c>
+      <c r="H16" t="s">
+        <v>3</v>
+      </c>
+      <c r="I16" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A17" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="B17" s="2">
+        <v>16.600000000000001</v>
+      </c>
+      <c r="C17" s="2">
+        <v>100</v>
+      </c>
+      <c r="D17" s="2">
+        <v>16</v>
+      </c>
+      <c r="E17" s="2">
+        <v>33</v>
+      </c>
+      <c r="F17" s="9">
+        <v>1</v>
+      </c>
+      <c r="G17" s="9">
+        <v>1</v>
+      </c>
+      <c r="H17" t="s">
+        <v>3</v>
+      </c>
+      <c r="I17" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>42</v>
+      </c>
+      <c r="B18" s="2">
+        <v>15.5</v>
+      </c>
+      <c r="C18" s="2"/>
+      <c r="D18" s="2">
+        <v>14.999999999999998</v>
+      </c>
+      <c r="E18" s="2"/>
+      <c r="F18" s="9">
+        <v>1</v>
+      </c>
+      <c r="G18" s="9"/>
+      <c r="H18" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>41</v>
+      </c>
+      <c r="B19" s="2">
+        <v>15.5</v>
+      </c>
+      <c r="C19" s="2"/>
+      <c r="D19" s="2">
+        <v>14.999999999999998</v>
+      </c>
+      <c r="E19" s="2"/>
+      <c r="F19" s="9">
+        <v>1</v>
+      </c>
+      <c r="G19" s="9"/>
+      <c r="H19" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>40</v>
+      </c>
+      <c r="B20" s="2">
+        <v>4000000</v>
+      </c>
+      <c r="C20" s="2"/>
+      <c r="D20" s="2">
+        <v>5.1000000000000005</v>
+      </c>
+      <c r="E20" s="2"/>
+      <c r="F20" s="9">
+        <v>1</v>
+      </c>
+      <c r="G20" s="9"/>
+      <c r="H20" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A21" s="16" t="s">
+        <v>39</v>
+      </c>
+      <c r="B21" s="2">
+        <v>15.700000000000001</v>
+      </c>
+      <c r="C21" s="2"/>
+      <c r="D21" s="2">
+        <v>16</v>
+      </c>
+      <c r="E21" s="2"/>
+      <c r="F21" s="9">
+        <v>1</v>
+      </c>
+      <c r="G21" s="9"/>
+      <c r="H21" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>38</v>
+      </c>
+      <c r="B22" s="2">
+        <v>964</v>
+      </c>
+      <c r="C22" s="2"/>
+      <c r="D22" s="2">
+        <v>979.99999999999989</v>
+      </c>
+      <c r="E22" s="2"/>
+      <c r="F22" s="9">
+        <v>1</v>
+      </c>
+      <c r="G22" s="9"/>
+      <c r="H22" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>37</v>
+      </c>
+      <c r="B23" s="2">
+        <v>15.399999999999999</v>
+      </c>
+      <c r="C23" s="2"/>
+      <c r="D23" s="2">
+        <v>14.999999999999998</v>
+      </c>
+      <c r="E23" s="2"/>
+      <c r="F23" s="9">
+        <v>1</v>
+      </c>
+      <c r="G23" s="9"/>
+      <c r="H23" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>36</v>
+      </c>
+      <c r="B24" s="2">
+        <v>4000000</v>
+      </c>
+      <c r="C24" s="2"/>
+      <c r="D24" s="2">
+        <v>5.1000000000000005</v>
+      </c>
+      <c r="E24" s="2"/>
+      <c r="F24" s="9">
+        <v>1</v>
+      </c>
+      <c r="G24" s="9"/>
+      <c r="H24" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>35</v>
+      </c>
+      <c r="B25" s="2">
+        <v>15.399999999999999</v>
+      </c>
+      <c r="C25" s="2"/>
+      <c r="D25" s="2">
+        <v>14.999999999999998</v>
+      </c>
+      <c r="E25" s="2"/>
+      <c r="F25" s="9">
+        <v>1</v>
+      </c>
+      <c r="G25" s="9"/>
+      <c r="H25" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>34</v>
+      </c>
+      <c r="B26" s="2">
+        <v>943</v>
+      </c>
+      <c r="C26" s="2"/>
+      <c r="D26" s="2">
+        <v>959.99999999999989</v>
+      </c>
+      <c r="E26" s="2"/>
+      <c r="F26" s="9">
+        <v>1</v>
+      </c>
+      <c r="G26" s="9"/>
+      <c r="H26" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>33</v>
+      </c>
+      <c r="B27" s="2">
+        <v>1000</v>
+      </c>
+      <c r="C27" s="2"/>
+      <c r="D27" s="2">
+        <v>1000</v>
+      </c>
+      <c r="E27" s="2"/>
+      <c r="F27" s="9">
+        <v>1000</v>
+      </c>
+      <c r="G27" s="9"/>
+      <c r="H27" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>32</v>
+      </c>
+      <c r="B28" s="2">
+        <v>4000000</v>
+      </c>
+      <c r="C28" s="2"/>
+      <c r="D28" s="2">
+        <v>870</v>
+      </c>
+      <c r="E28" s="2"/>
+      <c r="F28" s="9">
+        <v>1000</v>
+      </c>
+      <c r="G28" s="9"/>
+      <c r="H28" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>31</v>
+      </c>
+      <c r="B29" s="2">
+        <v>1000</v>
+      </c>
+      <c r="C29" s="2"/>
+      <c r="D29" s="2">
+        <v>16</v>
+      </c>
+      <c r="E29" s="2"/>
+      <c r="F29" s="9">
+        <v>1000</v>
+      </c>
+      <c r="G29" s="9"/>
+      <c r="H29" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>30</v>
+      </c>
+      <c r="B30" s="2">
+        <v>10000000</v>
+      </c>
+      <c r="C30" s="2"/>
+      <c r="D30" s="2">
+        <v>780</v>
+      </c>
+      <c r="E30" s="2"/>
+      <c r="F30" s="9">
+        <v>10000000</v>
+      </c>
+      <c r="G30" s="9"/>
+      <c r="H30" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>29</v>
+      </c>
+      <c r="B31" s="2">
+        <v>10000000</v>
+      </c>
+      <c r="C31" s="2"/>
+      <c r="D31" s="2">
+        <v>979.99999999999989</v>
+      </c>
+      <c r="E31" s="2"/>
+      <c r="F31" s="9">
+        <v>10000000</v>
+      </c>
+      <c r="G31" s="9"/>
+      <c r="H31" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>48</v>
+      </c>
+      <c r="B32" s="2"/>
+      <c r="C32" s="2">
+        <v>1000000000</v>
+      </c>
+      <c r="D32" s="2"/>
+      <c r="E32" s="2">
+        <v>7.4999999999999991</v>
+      </c>
+      <c r="F32" s="9"/>
+      <c r="G32" s="9">
+        <v>1000000000</v>
+      </c>
+      <c r="I32" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>47</v>
+      </c>
+      <c r="B33" s="2"/>
+      <c r="C33" s="2">
+        <v>1000000000</v>
+      </c>
+      <c r="D33" s="2"/>
+      <c r="E33" s="2">
+        <v>7.6000000000000005</v>
+      </c>
+      <c r="F33" s="9"/>
+      <c r="G33" s="9">
+        <v>1000000000</v>
+      </c>
+      <c r="I33" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>67</v>
+      </c>
+      <c r="B34" s="2"/>
+      <c r="C34" s="2">
+        <v>15500000</v>
+      </c>
+      <c r="D34" s="2"/>
+      <c r="E34" s="2">
+        <v>54</v>
+      </c>
+      <c r="F34" s="9"/>
+      <c r="G34" s="9">
+        <v>1000000</v>
+      </c>
+      <c r="I34" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>66</v>
+      </c>
+      <c r="B35" s="2"/>
+      <c r="C35" s="2">
+        <v>15500000</v>
+      </c>
+      <c r="D35" s="2"/>
+      <c r="E35" s="2">
+        <v>79</v>
+      </c>
+      <c r="F35" s="9"/>
+      <c r="G35" s="9">
+        <v>100</v>
+      </c>
+      <c r="I35" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>65</v>
+      </c>
+      <c r="B36" s="2"/>
+      <c r="C36" s="2">
+        <v>15600000</v>
+      </c>
+      <c r="D36" s="2"/>
+      <c r="E36" s="2">
+        <v>830</v>
+      </c>
+      <c r="F36" s="9"/>
+      <c r="G36" s="9">
+        <v>100</v>
+      </c>
+      <c r="I36" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>64</v>
+      </c>
+      <c r="B37" s="2"/>
+      <c r="C37" s="2">
+        <v>15500000</v>
+      </c>
+      <c r="D37" s="2"/>
+      <c r="E37" s="2">
+        <v>29.999999999999996</v>
+      </c>
+      <c r="F37" s="9"/>
+      <c r="G37" s="9">
+        <v>1000000</v>
+      </c>
+      <c r="I37" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>63</v>
+      </c>
+      <c r="B38" s="2"/>
+      <c r="C38" s="2">
+        <v>15800000.000000002</v>
+      </c>
+      <c r="D38" s="2"/>
+      <c r="E38" s="2">
+        <v>54</v>
+      </c>
+      <c r="F38" s="9"/>
+      <c r="G38" s="9">
+        <v>100</v>
+      </c>
+      <c r="I38" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>62</v>
+      </c>
+      <c r="B39" s="2"/>
+      <c r="C39" s="2">
+        <v>15600000</v>
+      </c>
+      <c r="D39" s="2"/>
+      <c r="E39" s="2">
+        <v>4.5</v>
+      </c>
+      <c r="F39" s="9"/>
+      <c r="G39" s="9">
+        <v>100</v>
+      </c>
+      <c r="I39" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>61</v>
+      </c>
+      <c r="B40" s="2"/>
+      <c r="C40" s="2">
+        <v>100</v>
+      </c>
+      <c r="D40" s="2"/>
+      <c r="E40" s="2">
+        <v>21</v>
+      </c>
+      <c r="F40" s="9"/>
+      <c r="G40" s="9">
+        <v>100</v>
+      </c>
+      <c r="I40" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>60</v>
+      </c>
+      <c r="B41" s="2"/>
+      <c r="C41" s="2">
+        <v>11700000</v>
+      </c>
+      <c r="D41" s="2"/>
+      <c r="E41" s="2">
+        <v>2800</v>
+      </c>
+      <c r="F41" s="9"/>
+      <c r="G41" s="9">
+        <v>12</v>
+      </c>
+      <c r="I41" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>59</v>
+      </c>
+      <c r="B42" s="2"/>
+      <c r="C42" s="2">
+        <v>15600000</v>
+      </c>
+      <c r="D42" s="2"/>
+      <c r="E42" s="2">
+        <v>780</v>
+      </c>
+      <c r="F42" s="9"/>
+      <c r="G42" s="9">
+        <v>100</v>
+      </c>
+      <c r="I42" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>58</v>
+      </c>
+      <c r="B43" s="2"/>
+      <c r="C43" s="2">
+        <v>15699999.999999998</v>
+      </c>
+      <c r="D43" s="2"/>
+      <c r="E43" s="2">
+        <v>1.3</v>
+      </c>
+      <c r="F43" s="9"/>
+      <c r="G43" s="9">
+        <v>1000000</v>
+      </c>
+      <c r="I43" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>57</v>
+      </c>
+      <c r="B44" s="2"/>
+      <c r="C44" s="2">
+        <v>15500000</v>
+      </c>
+      <c r="D44" s="2"/>
+      <c r="E44" s="2">
+        <v>1.0999999999999999</v>
+      </c>
+      <c r="F44" s="9"/>
+      <c r="G44" s="9">
+        <v>1000000</v>
+      </c>
+      <c r="I44" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>56</v>
+      </c>
+      <c r="B45" s="2"/>
+      <c r="C45" s="2">
+        <v>15600000</v>
+      </c>
+      <c r="D45" s="2"/>
+      <c r="E45" s="2">
+        <v>1.7</v>
+      </c>
+      <c r="F45" s="9"/>
+      <c r="G45" s="9">
+        <v>100</v>
+      </c>
+      <c r="I45" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>55</v>
+      </c>
+      <c r="B46" s="2"/>
+      <c r="C46" s="2">
+        <v>15600000</v>
+      </c>
+      <c r="D46" s="2"/>
+      <c r="E46" s="2">
+        <v>1.0999999999999999</v>
+      </c>
+      <c r="F46" s="9"/>
+      <c r="G46" s="9">
+        <v>100</v>
+      </c>
+      <c r="I46" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>54</v>
+      </c>
+      <c r="B47" s="2"/>
+      <c r="C47" s="2">
+        <v>100</v>
+      </c>
+      <c r="D47" s="2"/>
+      <c r="E47" s="2">
+        <v>18</v>
+      </c>
+      <c r="F47" s="9"/>
+      <c r="G47" s="9">
+        <v>100</v>
+      </c>
+      <c r="I47" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A48" s="16" t="s">
+        <v>53</v>
+      </c>
+      <c r="B48" s="2"/>
+      <c r="C48" s="2">
+        <v>100</v>
+      </c>
+      <c r="D48" s="2"/>
+      <c r="E48" s="2">
+        <v>13</v>
+      </c>
+      <c r="F48" s="9"/>
+      <c r="G48" s="9">
+        <v>100</v>
+      </c>
+      <c r="I48" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>52</v>
+      </c>
+      <c r="B49" s="2"/>
+      <c r="C49" s="2">
+        <v>2200</v>
+      </c>
+      <c r="D49" s="2"/>
+      <c r="E49" s="2">
+        <v>2300</v>
+      </c>
+      <c r="F49" s="9"/>
+      <c r="G49" s="9">
+        <v>0.25</v>
+      </c>
+      <c r="I49" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>51</v>
+      </c>
+      <c r="B50" s="2"/>
+      <c r="C50" s="2">
+        <v>781</v>
+      </c>
+      <c r="D50" s="2"/>
+      <c r="E50" s="2">
+        <v>800</v>
+      </c>
+      <c r="F50" s="9"/>
+      <c r="G50" s="9">
+        <v>0.25</v>
+      </c>
+      <c r="I50" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>50</v>
+      </c>
+      <c r="B51" s="2"/>
+      <c r="C51" s="2">
+        <v>15600000</v>
+      </c>
+      <c r="D51" s="2"/>
+      <c r="E51" s="2">
+        <v>1.5</v>
+      </c>
+      <c r="F51" s="9"/>
+      <c r="G51" s="9">
+        <v>100</v>
+      </c>
+      <c r="I51" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>49</v>
+      </c>
+      <c r="B52" s="2"/>
+      <c r="C52" s="2">
+        <v>100</v>
+      </c>
+      <c r="D52" s="2"/>
+      <c r="E52" s="2">
+        <v>19</v>
+      </c>
+      <c r="F52" s="9"/>
+      <c r="G52" s="9">
+        <v>100</v>
+      </c>
+      <c r="I52" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>46</v>
+      </c>
+      <c r="B53" s="2"/>
+      <c r="C53" s="2">
+        <v>15800000.000000002</v>
+      </c>
+      <c r="D53" s="2"/>
+      <c r="E53" s="2">
+        <v>11</v>
+      </c>
+      <c r="F53" s="9"/>
+      <c r="G53" s="9">
+        <v>1000000</v>
+      </c>
+      <c r="I53" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>45</v>
+      </c>
+      <c r="B54" s="2"/>
+      <c r="C54" s="2">
+        <v>15800000.000000002</v>
+      </c>
+      <c r="D54" s="2"/>
+      <c r="E54" s="2">
+        <v>10</v>
+      </c>
+      <c r="F54" s="9"/>
+      <c r="G54" s="9">
+        <v>1000000</v>
+      </c>
+      <c r="I54" t="s">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <autoFilter ref="A2:I2" xr:uid="{5226C7DB-4522-4607-A447-60A0B57A6F3E}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A3:I61">
+      <sortCondition ref="A2"/>
+    </sortState>
+  </autoFilter>
+  <mergeCells count="4">
+    <mergeCell ref="H1:I1"/>
+    <mergeCell ref="B1:C1"/>
+    <mergeCell ref="D1:E1"/>
+    <mergeCell ref="F1:G1"/>
+  </mergeCells>
+  <conditionalFormatting sqref="B3:B54">
+    <cfRule type="colorScale" priority="115">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C3:C54">
+    <cfRule type="colorScale" priority="116">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D3:D54">
+    <cfRule type="colorScale" priority="117">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E3:E54">
+    <cfRule type="colorScale" priority="118">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F3:F54">
+    <cfRule type="colorScale" priority="119">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G3:G54">
+    <cfRule type="colorScale" priority="120">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B3:C54">
+    <cfRule type="colorScale" priority="121">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D3:E54">
+    <cfRule type="colorScale" priority="122">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F3:G54">
+    <cfRule type="colorScale" priority="123">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/source/doc/Measurements4.xlsx
+++ b/source/doc/Measurements4.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tixo\Work\Tikhomirov2\vi_metrics_time\source\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33661F8A-499D-468A-B1E4-3442EE611EC0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F444DDA7-DD32-476A-907A-02464AF0484E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{FDD1F062-B851-49B6-886E-B3EC290E6614}"/>
   </bookViews>
@@ -706,7 +706,7 @@
   <dimension ref="A1:N61"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="Q8" sqref="Q8"/>
+      <selection activeCell="S24" sqref="S24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3145,5 +3145,6 @@
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
--- a/source/doc/Measurements4.xlsx
+++ b/source/doc/Measurements4.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tixo\Work\Tikhomirov2\vi_metrics_time\source\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F444DDA7-DD32-476A-907A-02464AF0484E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C679A206-A9A4-400A-B0E6-4660CE2EA059}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{FDD1F062-B851-49B6-886E-B3EC290E6614}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="61">
   <si>
     <t>Discreteness</t>
   </si>
@@ -65,15 +65,6 @@
     <t>Linux</t>
   </si>
   <si>
-    <t>&lt;C&gt;  ::timespec_get(TIME_UTC)</t>
-  </si>
-  <si>
-    <t>&lt;C&gt;  ::time()</t>
-  </si>
-  <si>
-    <t>&lt;C&gt;  ::clock()</t>
-  </si>
-  <si>
     <t>&lt;C++&gt;::system_clock::now()</t>
   </si>
   <si>
@@ -83,48 +74,6 @@
     <t>&lt;C++&gt;::high_resolution_clock::now()</t>
   </si>
   <si>
-    <t>&lt;ASM&gt;::RDTSC_INTRINSIC</t>
-  </si>
-  <si>
-    <t>&lt;ASM&gt;::RDTSC_ASM</t>
-  </si>
-  <si>
-    <t>&lt;ASM&gt;::RDTSCP_INTRINSIC</t>
-  </si>
-  <si>
-    <t>&lt;ASM&gt;::RDTSCP_ASM</t>
-  </si>
-  <si>
-    <t>&lt;ASM&gt;::RDTSCP+LFENCE_INTRINSIC</t>
-  </si>
-  <si>
-    <t>&lt;ASM&gt;::RDTSCP+LFENCE_ASM</t>
-  </si>
-  <si>
-    <t>&lt;ASM&gt;::RDTSCP+CPUID_INTRINSIC</t>
-  </si>
-  <si>
-    <t>&lt;ASM&gt;::RDTSCP+CPUID_ASM</t>
-  </si>
-  <si>
-    <t>&lt;ASM&gt;::MFENCE+LFENCE+RDTSC_INTRINSIC</t>
-  </si>
-  <si>
-    <t>&lt;ASM&gt;::MFENCE+LFENCE+RDTSC_ASM</t>
-  </si>
-  <si>
-    <t>&lt;ASM&gt;::LFENCE+RDTSC_INTRINSIC</t>
-  </si>
-  <si>
-    <t>&lt;ASM&gt;::LFENCE+RDTSC_ASM</t>
-  </si>
-  <si>
-    <t>&lt;ASM&gt;::CPUID+RDTSC_INTRINSIC</t>
-  </si>
-  <si>
-    <t>&lt;ASM&gt;::CPUID+RDTSC_ASM</t>
-  </si>
-  <si>
     <t>&lt;LNX&gt;::times(tms)</t>
   </si>
   <si>
@@ -167,12 +116,6 @@
     <t>&lt;LNX&gt;::clock_gettime(CLOCK_BOOTTIME)</t>
   </si>
   <si>
-    <t>&lt;BST&gt;::cpu_timerelapsed() wall</t>
-  </si>
-  <si>
-    <t>&lt;BST&gt;::cpu_timerelapsed() user + system</t>
-  </si>
-  <si>
     <t>&lt;WIN&gt;::timeGetTime()</t>
   </si>
   <si>
@@ -227,18 +170,12 @@
     <t>&lt;WIN&gt;::GetSystemTimeAsFileTime()</t>
   </si>
   <si>
-    <t>&lt;WIN&gt;::GetSystemTime() FT</t>
-  </si>
-  <si>
     <t>&lt;WIN&gt;::GetSystemTime()</t>
   </si>
   <si>
     <t>&lt;WIN&gt;::GetProcessTimes()</t>
   </si>
   <si>
-    <t>&lt;WIN&gt;::GetLocalTime() FT</t>
-  </si>
-  <si>
     <t>&lt;WIN&gt;::GetLocalTime()</t>
   </si>
   <si>
@@ -249,6 +186,42 @@
   </si>
   <si>
     <t>[microseconds]</t>
+  </si>
+  <si>
+    <t>&lt;ASM&gt;::CPUID+RDTSC</t>
+  </si>
+  <si>
+    <t>&lt;ASM&gt;::LFENCE+RDTSC</t>
+  </si>
+  <si>
+    <t>&lt;ASM&gt;::MFENCE+LFENCE+RDTSC</t>
+  </si>
+  <si>
+    <t>&lt;ASM&gt;::RDTSC</t>
+  </si>
+  <si>
+    <t>&lt;ASM&gt;::RDTSCP</t>
+  </si>
+  <si>
+    <t>&lt;ASM&gt;::RDTSCP+CPUID</t>
+  </si>
+  <si>
+    <t>&lt;ASM&gt;::RDTSCP+LFENCE</t>
+  </si>
+  <si>
+    <t>&lt;BOOST&gt;::cpu_timerelapsed() user + system</t>
+  </si>
+  <si>
+    <t>&lt;BOOST&gt;::cpu_timerelapsed() wall</t>
+  </si>
+  <si>
+    <t>&lt;C&gt;::time()</t>
+  </si>
+  <si>
+    <t>&lt;C&gt;::clock()</t>
+  </si>
+  <si>
+    <t>&lt;C&gt;::timespec_get(TIME_UTC)</t>
   </si>
 </sst>
 </file>
@@ -256,11 +229,11 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="3">
-    <numFmt numFmtId="166" formatCode="#,##0.000"/>
-    <numFmt numFmtId="167" formatCode="#,##0.0000"/>
-    <numFmt numFmtId="168" formatCode="#,##0.00000"/>
+    <numFmt numFmtId="164" formatCode="#,##0.000"/>
+    <numFmt numFmtId="165" formatCode="#,##0.0000"/>
+    <numFmt numFmtId="166" formatCode="#,##0.00000"/>
   </numFmts>
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -300,8 +273,17 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <strike/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -332,6 +314,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-9.9978637043366805E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -345,13 +333,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
@@ -360,15 +348,22 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="166" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="166" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="166" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="167" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="168" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -703,10 +698,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DA7D6980-DB41-49AD-AB62-2CDBC3F6894C}">
-  <dimension ref="A1:N61"/>
+  <dimension ref="A1:N53"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="S24" sqref="S24"/>
+      <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="B1" sqref="B1"/>
+      <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
+      <selection pane="bottomRight" activeCell="R14" sqref="R14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -726,86 +724,92 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" s="13" customFormat="1" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="B1" s="14" t="s">
-        <v>69</v>
-      </c>
-      <c r="C1" s="15" t="s">
+      <c r="A1" s="22"/>
+      <c r="B1" s="23" t="s">
+        <v>48</v>
+      </c>
+      <c r="C1" s="24" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="15"/>
-      <c r="E1" s="15"/>
-      <c r="F1" s="15" t="s">
+      <c r="D1" s="24"/>
+      <c r="E1" s="24"/>
+      <c r="F1" s="24" t="s">
         <v>1</v>
       </c>
-      <c r="G1" s="15"/>
-      <c r="H1" s="15"/>
-      <c r="I1" s="15" t="s">
+      <c r="G1" s="24"/>
+      <c r="H1" s="24"/>
+      <c r="I1" s="24" t="s">
         <v>2</v>
       </c>
-      <c r="J1" s="15"/>
-      <c r="K1" s="15"/>
-      <c r="L1" s="15" t="s">
+      <c r="J1" s="24"/>
+      <c r="K1" s="24"/>
+      <c r="L1" s="24" t="s">
         <v>6</v>
       </c>
-      <c r="M1" s="15"/>
-      <c r="N1" s="15"/>
+      <c r="M1" s="24"/>
+      <c r="N1" s="24"/>
     </row>
     <row r="2" spans="1:14" s="2" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B2" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="D2" s="2" t="s">
+      <c r="A2" s="25"/>
+      <c r="B2" s="25" t="s">
+        <v>46</v>
+      </c>
+      <c r="C2" s="25"/>
+      <c r="D2" s="25" t="s">
         <v>7</v>
       </c>
-      <c r="E2" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="G2" s="2" t="s">
+      <c r="E2" s="25" t="s">
+        <v>47</v>
+      </c>
+      <c r="F2" s="25"/>
+      <c r="G2" s="25" t="s">
         <v>7</v>
       </c>
-      <c r="H2" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="J2" s="2" t="s">
+      <c r="H2" s="25" t="s">
+        <v>47</v>
+      </c>
+      <c r="I2" s="25"/>
+      <c r="J2" s="25" t="s">
         <v>7</v>
       </c>
-      <c r="K2" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="M2" s="2" t="s">
+      <c r="K2" s="25" t="s">
+        <v>47</v>
+      </c>
+      <c r="L2" s="25"/>
+      <c r="M2" s="25" t="s">
         <v>7</v>
       </c>
-      <c r="N2" s="2" t="s">
-        <v>68</v>
+      <c r="N2" s="25" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3">
+        <v>4</v>
+      </c>
+      <c r="B3" t="s">
+        <v>52</v>
+      </c>
+      <c r="C3" s="6">
         <v>1</v>
       </c>
-      <c r="B3" t="s">
-        <v>27</v>
-      </c>
-      <c r="C3" s="6">
-        <v>17</v>
-      </c>
       <c r="D3" s="3">
-        <v>2.9499999999999998E-2</v>
+        <v>6.4000000000000003E-3</v>
       </c>
       <c r="E3" s="3">
-        <v>2.93E-2</v>
+        <v>6.3E-3</v>
       </c>
       <c r="F3" s="6">
-        <v>39</v>
+        <v>10</v>
       </c>
       <c r="G3" s="4">
-        <v>2.9000000000000001E-2</v>
+        <v>6.4000000000000003E-3</v>
       </c>
       <c r="H3" s="4">
-        <v>2.9000000000000001E-2</v>
+        <v>6.3E-3</v>
       </c>
       <c r="I3" s="6">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="J3" s="5">
         <v>2.5000000000000001E-4</v>
@@ -814,7 +818,7 @@
         <v>2.5000000000000001E-4</v>
       </c>
       <c r="L3" s="6">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="M3" s="8" t="s">
         <v>3</v>
@@ -825,31 +829,31 @@
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4">
+        <v>5</v>
+      </c>
+      <c r="B4" t="s">
+        <v>53</v>
+      </c>
+      <c r="C4" s="6">
         <v>2</v>
       </c>
-      <c r="B4" t="s">
-        <v>26</v>
-      </c>
-      <c r="C4" s="6">
-        <v>16</v>
-      </c>
       <c r="D4" s="3">
-        <v>2.9600000000000001E-2</v>
+        <v>8.8999999999999999E-3</v>
       </c>
       <c r="E4" s="3">
-        <v>2.8799999999999999E-2</v>
+        <v>9.300000000000001E-3</v>
       </c>
       <c r="F4" s="6">
-        <v>38</v>
+        <v>13</v>
       </c>
       <c r="G4" s="4">
-        <v>2.9000000000000001E-2</v>
+        <v>9.1999999999999998E-3</v>
       </c>
       <c r="H4" s="4">
-        <v>2.9000000000000001E-2</v>
+        <v>8.9999999999999993E-3</v>
       </c>
       <c r="I4" s="6">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="J4" s="5">
         <v>2.5000000000000001E-4</v>
@@ -858,7 +862,7 @@
         <v>2.5000000000000001E-4</v>
       </c>
       <c r="L4" s="6">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="M4" s="8" t="s">
         <v>3</v>
@@ -869,31 +873,31 @@
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B5" t="s">
-        <v>25</v>
+        <v>50</v>
       </c>
       <c r="C5" s="6">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D5" s="3">
-        <v>9.4000000000000004E-3</v>
+        <v>9.300000000000001E-3</v>
       </c>
       <c r="E5" s="3">
-        <v>1.0299999999999998E-2</v>
+        <v>9.8000000000000014E-3</v>
       </c>
       <c r="F5" s="6">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="G5" s="4">
         <v>9.300000000000001E-3</v>
       </c>
       <c r="H5" s="4">
-        <v>9.5999999999999992E-3</v>
+        <v>9.1000000000000004E-3</v>
       </c>
       <c r="I5" s="6">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="J5" s="5">
         <v>2.5000000000000001E-4</v>
@@ -902,7 +906,7 @@
         <v>2.5000000000000001E-4</v>
       </c>
       <c r="L5" s="6">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="M5" s="8" t="s">
         <v>3</v>
@@ -913,28 +917,28 @@
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A6">
-        <v>4</v>
-      </c>
-      <c r="B6" t="s">
-        <v>24</v>
+        <v>7</v>
+      </c>
+      <c r="B6" s="7" t="s">
+        <v>55</v>
       </c>
       <c r="C6" s="6">
         <v>4</v>
       </c>
       <c r="D6" s="3">
-        <v>9.300000000000001E-3</v>
+        <v>1.2299999999999998E-2</v>
       </c>
       <c r="E6" s="3">
-        <v>9.8000000000000014E-3</v>
+        <v>1.17E-2</v>
       </c>
       <c r="F6" s="6">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="G6" s="4">
-        <v>9.300000000000001E-3</v>
+        <v>1.2E-2</v>
       </c>
       <c r="H6" s="4">
-        <v>9.1000000000000004E-3</v>
+        <v>1.2E-2</v>
       </c>
       <c r="I6" s="6">
         <v>4</v>
@@ -946,7 +950,7 @@
         <v>2.5000000000000001E-4</v>
       </c>
       <c r="L6" s="6">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="M6" s="8" t="s">
         <v>3</v>
@@ -957,251 +961,206 @@
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A7">
+        <v>21</v>
+      </c>
+      <c r="B7" t="s">
+        <v>19</v>
+      </c>
+      <c r="C7" s="6">
         <v>5</v>
       </c>
-      <c r="B7" t="s">
-        <v>23</v>
-      </c>
-      <c r="C7" s="6">
-        <v>15</v>
-      </c>
       <c r="D7" s="3">
-        <v>1.7100000000000001E-2</v>
-      </c>
-      <c r="E7" s="3">
-        <v>1.7399999999999999E-2</v>
-      </c>
+        <v>1.5399999999999999E-2</v>
+      </c>
+      <c r="E7" s="3"/>
       <c r="F7" s="6">
-        <v>32</v>
+        <v>19</v>
       </c>
       <c r="G7" s="4">
-        <v>1.7000000000000001E-2</v>
-      </c>
-      <c r="H7" s="4">
-        <v>1.7000000000000001E-2</v>
-      </c>
+        <v>1.4999999999999998E-2</v>
+      </c>
+      <c r="H7" s="4"/>
       <c r="I7" s="6">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="J7" s="5">
-        <v>2.5000000000000001E-4</v>
-      </c>
-      <c r="K7" s="5">
-        <v>2.5000000000000001E-4</v>
-      </c>
+        <v>1E-3</v>
+      </c>
+      <c r="K7" s="5"/>
       <c r="L7" s="6">
-        <v>5</v>
+        <v>17</v>
       </c>
       <c r="M7" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="N7" s="8" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A8">
+        <v>16</v>
+      </c>
+      <c r="B8" t="s">
+        <v>24</v>
+      </c>
+      <c r="C8" s="6">
         <v>6</v>
       </c>
-      <c r="B8" t="s">
-        <v>22</v>
-      </c>
-      <c r="C8" s="6">
-        <v>14</v>
-      </c>
       <c r="D8" s="3">
-        <v>1.6400000000000001E-2</v>
-      </c>
-      <c r="E8" s="3">
-        <v>1.6E-2</v>
-      </c>
+        <v>1.55E-2</v>
+      </c>
+      <c r="E8" s="3"/>
       <c r="F8" s="6">
-        <v>31</v>
+        <v>20</v>
       </c>
       <c r="G8" s="4">
-        <v>1.7000000000000001E-2</v>
-      </c>
-      <c r="H8" s="4">
-        <v>1.7000000000000001E-2</v>
-      </c>
+        <v>1.4999999999999998E-2</v>
+      </c>
+      <c r="H8" s="4"/>
       <c r="I8" s="6">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="J8" s="5">
-        <v>2.5000000000000001E-4</v>
-      </c>
-      <c r="K8" s="5">
-        <v>2.5000000000000001E-4</v>
-      </c>
+        <v>1E-3</v>
+      </c>
+      <c r="K8" s="5"/>
       <c r="L8" s="6">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="M8" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="N8" s="8" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A9">
+        <v>17</v>
+      </c>
+      <c r="B9" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9" s="6">
         <v>7</v>
       </c>
-      <c r="B9" t="s">
-        <v>15</v>
-      </c>
-      <c r="C9" s="6">
-        <v>2</v>
-      </c>
       <c r="D9" s="3">
-        <v>6.4000000000000003E-3</v>
-      </c>
-      <c r="E9" s="3">
-        <v>6.4000000000000003E-3</v>
-      </c>
+        <v>1.55E-2</v>
+      </c>
+      <c r="E9" s="3"/>
       <c r="F9" s="6">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="G9" s="4">
-        <v>6.4000000000000003E-3</v>
-      </c>
-      <c r="H9" s="4">
-        <v>6.3E-3</v>
-      </c>
+        <v>1.4999999999999998E-2</v>
+      </c>
+      <c r="H9" s="4"/>
       <c r="I9" s="6">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="J9" s="5">
-        <v>2.5000000000000001E-4</v>
-      </c>
-      <c r="K9" s="5">
-        <v>2.5000000000000001E-4</v>
-      </c>
+        <v>1E-3</v>
+      </c>
+      <c r="K9" s="5"/>
       <c r="L9" s="6">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="M9" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="N9" s="8" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A10">
+        <v>23</v>
+      </c>
+      <c r="B10" t="s">
+        <v>17</v>
+      </c>
+      <c r="C10" s="6">
         <v>8</v>
       </c>
-      <c r="B10" t="s">
-        <v>14</v>
-      </c>
-      <c r="C10" s="6">
-        <v>1</v>
-      </c>
       <c r="D10" s="3">
-        <v>6.4000000000000003E-3</v>
-      </c>
-      <c r="E10" s="3">
-        <v>6.3E-3</v>
-      </c>
+        <v>1.55E-2</v>
+      </c>
+      <c r="E10" s="3"/>
       <c r="F10" s="6">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="G10" s="4">
-        <v>6.4000000000000003E-3</v>
-      </c>
-      <c r="H10" s="4">
-        <v>6.3E-3</v>
-      </c>
+        <v>1.4999999999999998E-2</v>
+      </c>
+      <c r="H10" s="4"/>
       <c r="I10" s="6">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="J10" s="5">
-        <v>2.5000000000000001E-4</v>
-      </c>
-      <c r="K10" s="5">
-        <v>2.5000000000000001E-4</v>
-      </c>
+        <v>1E-3</v>
+      </c>
+      <c r="K10" s="5"/>
       <c r="L10" s="6">
-        <v>8</v>
+        <v>19</v>
       </c>
       <c r="M10" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="N10" s="8" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A11">
+        <v>19</v>
+      </c>
+      <c r="B11" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="C11" s="6">
         <v>9</v>
       </c>
-      <c r="B11" t="s">
-        <v>17</v>
-      </c>
-      <c r="C11" s="6">
-        <v>5</v>
-      </c>
       <c r="D11" s="3">
-        <v>9.4999999999999998E-3</v>
-      </c>
-      <c r="E11" s="3">
-        <v>0.01</v>
-      </c>
+        <v>1.5700000000000002E-2</v>
+      </c>
+      <c r="E11" s="3"/>
       <c r="F11" s="6">
+        <v>23</v>
+      </c>
+      <c r="G11" s="4">
+        <v>1.6E-2</v>
+      </c>
+      <c r="H11" s="4"/>
+      <c r="I11" s="6">
         <v>16</v>
       </c>
-      <c r="G11" s="4">
-        <v>9.1999999999999998E-3</v>
-      </c>
-      <c r="H11" s="4">
-        <v>9.1999999999999998E-3</v>
-      </c>
-      <c r="I11" s="6">
-        <v>5</v>
-      </c>
       <c r="J11" s="5">
-        <v>2.5000000000000001E-4</v>
-      </c>
-      <c r="K11" s="5">
-        <v>2.5000000000000001E-4</v>
-      </c>
+        <v>1E-3</v>
+      </c>
+      <c r="K11" s="5"/>
       <c r="L11" s="6">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="M11" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="N11" s="8" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A12">
+        <v>3</v>
+      </c>
+      <c r="B12" t="s">
+        <v>51</v>
+      </c>
+      <c r="C12" s="6">
         <v>10</v>
       </c>
-      <c r="B12" t="s">
-        <v>16</v>
-      </c>
-      <c r="C12" s="6">
-        <v>3</v>
-      </c>
       <c r="D12" s="3">
-        <v>8.8999999999999999E-3</v>
+        <v>1.6400000000000001E-2</v>
       </c>
       <c r="E12" s="3">
-        <v>9.300000000000001E-3</v>
+        <v>1.6E-2</v>
       </c>
       <c r="F12" s="6">
-        <v>14</v>
+        <v>27</v>
       </c>
       <c r="G12" s="4">
-        <v>9.1999999999999998E-3</v>
+        <v>1.7000000000000001E-2</v>
       </c>
       <c r="H12" s="4">
-        <v>8.9999999999999993E-3</v>
+        <v>1.7000000000000001E-2</v>
       </c>
       <c r="I12" s="6">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="J12" s="5">
         <v>2.5000000000000001E-4</v>
@@ -1210,7 +1169,7 @@
         <v>2.5000000000000001E-4</v>
       </c>
       <c r="L12" s="6">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="M12" s="8" t="s">
         <v>3</v>
@@ -1221,31 +1180,31 @@
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A13">
+        <v>1</v>
+      </c>
+      <c r="B13" t="s">
+        <v>49</v>
+      </c>
+      <c r="C13" s="6">
         <v>11</v>
       </c>
-      <c r="B13" t="s">
-        <v>21</v>
-      </c>
-      <c r="C13" s="6">
-        <v>19</v>
-      </c>
       <c r="D13" s="3">
-        <v>3.1900000000000005E-2</v>
+        <v>2.9600000000000001E-2</v>
       </c>
       <c r="E13" s="3">
-        <v>3.1599999999999996E-2</v>
+        <v>2.8799999999999999E-2</v>
       </c>
       <c r="F13" s="6">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="G13" s="4">
-        <v>3.1E-2</v>
+        <v>2.9000000000000001E-2</v>
       </c>
       <c r="H13" s="4">
-        <v>3.2000000000000001E-2</v>
+        <v>2.9000000000000001E-2</v>
       </c>
       <c r="I13" s="6">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="J13" s="5">
         <v>2.5000000000000001E-4</v>
@@ -1254,7 +1213,7 @@
         <v>2.5000000000000001E-4</v>
       </c>
       <c r="L13" s="6">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="M13" s="8" t="s">
         <v>3</v>
@@ -1265,13 +1224,13 @@
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A14">
+        <v>6</v>
+      </c>
+      <c r="B14" t="s">
+        <v>54</v>
+      </c>
+      <c r="C14" s="6">
         <v>12</v>
-      </c>
-      <c r="B14" t="s">
-        <v>20</v>
-      </c>
-      <c r="C14" s="6">
-        <v>18</v>
       </c>
       <c r="D14" s="3">
         <v>3.1599999999999996E-2</v>
@@ -1280,7 +1239,7 @@
         <v>3.1599999999999996E-2</v>
       </c>
       <c r="F14" s="6">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="G14" s="4">
         <v>3.1E-2</v>
@@ -1289,7 +1248,7 @@
         <v>3.2000000000000001E-2</v>
       </c>
       <c r="I14" s="6">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="J14" s="5">
         <v>2.5000000000000001E-4</v>
@@ -1298,7 +1257,7 @@
         <v>2.5000000000000001E-4</v>
       </c>
       <c r="L14" s="6">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="M14" s="8" t="s">
         <v>3</v>
@@ -1309,40 +1268,40 @@
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A15">
+        <v>15</v>
+      </c>
+      <c r="B15" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="C15" s="6">
         <v>13</v>
       </c>
-      <c r="B15" t="s">
+      <c r="D15" s="3">
+        <v>1.6199999999999999E-2</v>
+      </c>
+      <c r="E15" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="F15" s="6">
+        <v>32</v>
+      </c>
+      <c r="G15" s="4">
+        <v>1.6E-2</v>
+      </c>
+      <c r="H15" s="4">
+        <v>3.3000000000000002E-2</v>
+      </c>
+      <c r="I15" s="6">
         <v>19</v>
       </c>
-      <c r="C15" s="6">
-        <v>8</v>
-      </c>
-      <c r="D15" s="3">
-        <v>1.1599999999999999E-2</v>
-      </c>
-      <c r="E15" s="3">
-        <v>1.26E-2</v>
-      </c>
-      <c r="F15" s="6">
-        <v>21</v>
-      </c>
-      <c r="G15" s="4">
-        <v>1.2E-2</v>
-      </c>
-      <c r="H15" s="4">
-        <v>1.2999999999999999E-2</v>
-      </c>
-      <c r="I15" s="6">
-        <v>8</v>
-      </c>
       <c r="J15" s="5">
-        <v>2.5000000000000001E-4</v>
+        <v>1E-3</v>
       </c>
       <c r="K15" s="5">
-        <v>2.5000000000000001E-4</v>
+        <v>1E-3</v>
       </c>
       <c r="L15" s="6">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="M15" s="8" t="s">
         <v>3</v>
@@ -1353,40 +1312,40 @@
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A16">
+        <v>10</v>
+      </c>
+      <c r="B16" t="s">
+        <v>10</v>
+      </c>
+      <c r="C16" s="6">
         <v>14</v>
       </c>
-      <c r="B16" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="C16" s="6">
-        <v>7</v>
-      </c>
       <c r="D16" s="3">
-        <v>1.2299999999999998E-2</v>
+        <v>1.6400000000000001E-2</v>
       </c>
       <c r="E16" s="3">
-        <v>1.17E-2</v>
+        <v>0.1</v>
       </c>
       <c r="F16" s="6">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="G16" s="4">
-        <v>1.2E-2</v>
+        <v>1.6E-2</v>
       </c>
       <c r="H16" s="4">
-        <v>1.2E-2</v>
+        <v>1.6E-2</v>
       </c>
       <c r="I16" s="6">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="J16" s="5">
-        <v>2.5000000000000001E-4</v>
+        <v>1E-3</v>
       </c>
       <c r="K16" s="5">
-        <v>2.5000000000000001E-4</v>
+        <v>1E-3</v>
       </c>
       <c r="L16" s="6">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="M16" s="8" t="s">
         <v>3</v>
@@ -1397,69 +1356,87 @@
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A17">
-        <v>57</v>
-      </c>
-      <c r="B17" t="s">
-        <v>43</v>
+        <v>11</v>
+      </c>
+      <c r="B17" s="7" t="s">
+        <v>9</v>
       </c>
       <c r="C17" s="6">
-        <v>48</v>
-      </c>
-      <c r="D17" s="3"/>
+        <v>15</v>
+      </c>
+      <c r="D17" s="3">
+        <v>1.6400000000000001E-2</v>
+      </c>
       <c r="E17" s="3">
-        <v>15600</v>
+        <v>0.1</v>
       </c>
       <c r="F17" s="6">
-        <v>53</v>
-      </c>
-      <c r="G17" s="4"/>
+        <v>26</v>
+      </c>
+      <c r="G17" s="4">
+        <v>1.7000000000000001E-2</v>
+      </c>
       <c r="H17" s="4">
-        <v>0.87</v>
+        <v>1.6E-2</v>
       </c>
       <c r="I17" s="6">
-        <v>28</v>
-      </c>
-      <c r="J17" s="5"/>
+        <v>18</v>
+      </c>
+      <c r="J17" s="5">
+        <v>1E-3</v>
+      </c>
       <c r="K17" s="5">
         <v>1E-3</v>
       </c>
       <c r="L17" s="6">
-        <v>53</v>
-      </c>
-      <c r="N17" s="11" t="s">
-        <v>5</v>
+        <v>9</v>
+      </c>
+      <c r="M17" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="N17" s="8" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A18">
-        <v>35</v>
+        <v>12</v>
       </c>
       <c r="B18" t="s">
-        <v>42</v>
+        <v>8</v>
       </c>
       <c r="C18" s="6">
-        <v>29</v>
-      </c>
-      <c r="D18" s="3"/>
+        <v>16</v>
+      </c>
+      <c r="D18" s="3">
+        <v>1.6400000000000001E-2</v>
+      </c>
       <c r="E18" s="3">
-        <v>0.871</v>
+        <v>0.1</v>
       </c>
       <c r="F18" s="6">
-        <v>52</v>
-      </c>
-      <c r="G18" s="4"/>
+        <v>28</v>
+      </c>
+      <c r="G18" s="4">
+        <v>1.6E-2</v>
+      </c>
       <c r="H18" s="4">
-        <v>0.87</v>
+        <v>0.02</v>
       </c>
       <c r="I18" s="6">
-        <v>27</v>
-      </c>
-      <c r="J18" s="5"/>
+        <v>24</v>
+      </c>
+      <c r="J18" s="5">
+        <v>1E-3</v>
+      </c>
       <c r="K18" s="5">
-        <v>1E-3</v>
+        <v>0.1</v>
       </c>
       <c r="L18" s="6">
-        <v>29</v>
+        <v>10</v>
+      </c>
+      <c r="M18" s="8" t="s">
+        <v>3</v>
       </c>
       <c r="N18" s="8" t="s">
         <v>3</v>
@@ -1467,43 +1444,34 @@
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A19">
-        <v>15</v>
-      </c>
-      <c r="B19" t="s">
-        <v>13</v>
+        <v>44</v>
+      </c>
+      <c r="B19" s="7" t="s">
+        <v>33</v>
       </c>
       <c r="C19" s="6">
-        <v>21</v>
-      </c>
-      <c r="D19" s="3">
-        <v>1.6400000000000001E-2</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="D19" s="3"/>
       <c r="E19" s="3">
         <v>0.1</v>
       </c>
       <c r="F19" s="6">
-        <v>28</v>
-      </c>
-      <c r="G19" s="4">
-        <v>1.6E-2</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G19" s="4"/>
       <c r="H19" s="4">
-        <v>1.6E-2</v>
+        <v>1.2999999999999999E-2</v>
       </c>
       <c r="I19" s="6">
-        <v>24</v>
-      </c>
-      <c r="J19" s="5">
-        <v>1E-3</v>
-      </c>
+        <v>30</v>
+      </c>
+      <c r="J19" s="5"/>
       <c r="K19" s="5">
-        <v>1E-3</v>
+        <v>0.1</v>
       </c>
       <c r="L19" s="6">
-        <v>15</v>
-      </c>
-      <c r="M19" s="8" t="s">
-        <v>3</v>
+        <v>35</v>
       </c>
       <c r="N19" s="8" t="s">
         <v>3</v>
@@ -1511,43 +1479,34 @@
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A20">
-        <v>16</v>
-      </c>
-      <c r="B20" s="7" t="s">
-        <v>12</v>
+        <v>43</v>
+      </c>
+      <c r="B20" t="s">
+        <v>34</v>
       </c>
       <c r="C20" s="6">
-        <v>22</v>
-      </c>
-      <c r="D20" s="3">
-        <v>1.6400000000000001E-2</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="D20" s="3"/>
       <c r="E20" s="3">
         <v>0.1</v>
       </c>
       <c r="F20" s="6">
-        <v>30</v>
-      </c>
-      <c r="G20" s="4">
-        <v>1.7000000000000001E-2</v>
-      </c>
+        <v>29</v>
+      </c>
+      <c r="G20" s="4"/>
       <c r="H20" s="4">
-        <v>1.6E-2</v>
+        <v>1.7999999999999999E-2</v>
       </c>
       <c r="I20" s="6">
-        <v>25</v>
-      </c>
-      <c r="J20" s="5">
-        <v>1E-3</v>
-      </c>
+        <v>31</v>
+      </c>
+      <c r="J20" s="5"/>
       <c r="K20" s="5">
-        <v>1E-3</v>
+        <v>0.1</v>
       </c>
       <c r="L20" s="6">
-        <v>16</v>
-      </c>
-      <c r="M20" s="8" t="s">
-        <v>3</v>
+        <v>34</v>
       </c>
       <c r="N20" s="8" t="s">
         <v>3</v>
@@ -1555,43 +1514,34 @@
     </row>
     <row r="21" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A21">
-        <v>17</v>
+        <v>48</v>
       </c>
       <c r="B21" t="s">
-        <v>11</v>
+        <v>29</v>
       </c>
       <c r="C21" s="6">
-        <v>23</v>
-      </c>
-      <c r="D21" s="3">
-        <v>1.6400000000000001E-2</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="D21" s="3"/>
       <c r="E21" s="3">
         <v>0.1</v>
       </c>
       <c r="F21" s="6">
-        <v>33</v>
-      </c>
-      <c r="G21" s="4">
-        <v>1.6E-2</v>
-      </c>
+        <v>30</v>
+      </c>
+      <c r="G21" s="4"/>
       <c r="H21" s="4">
-        <v>0.02</v>
+        <v>1.7999999999999999E-2</v>
       </c>
       <c r="I21" s="6">
-        <v>31</v>
-      </c>
-      <c r="J21" s="5">
-        <v>1E-3</v>
-      </c>
+        <v>32</v>
+      </c>
+      <c r="J21" s="5"/>
       <c r="K21" s="5">
         <v>0.1</v>
       </c>
       <c r="L21" s="6">
-        <v>17</v>
-      </c>
-      <c r="M21" s="8" t="s">
-        <v>3</v>
+        <v>37</v>
       </c>
       <c r="N21" s="8" t="s">
         <v>3</v>
@@ -1599,131 +1549,104 @@
     </row>
     <row r="22" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A22">
+        <v>36</v>
+      </c>
+      <c r="B22" t="s">
+        <v>41</v>
+      </c>
+      <c r="C22" s="6">
+        <v>20</v>
+      </c>
+      <c r="D22" s="3"/>
+      <c r="E22" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="F22" s="6">
         <v>31</v>
       </c>
-      <c r="B22" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C22" s="6">
-        <v>35</v>
-      </c>
-      <c r="D22" s="16">
-        <v>1</v>
-      </c>
-      <c r="E22" s="16">
-        <v>1000</v>
-      </c>
-      <c r="F22" s="6">
-        <v>46</v>
-      </c>
-      <c r="G22" s="17">
-        <v>0.95999999999999985</v>
-      </c>
-      <c r="H22" s="17">
-        <v>3.5999999999999997E-2</v>
+      <c r="G22" s="4"/>
+      <c r="H22" s="4">
+        <v>2.1000000000000001E-2</v>
       </c>
       <c r="I22" s="6">
-        <v>48</v>
-      </c>
-      <c r="J22" s="18">
-        <v>1</v>
-      </c>
-      <c r="K22" s="18">
-        <v>1000</v>
+        <v>33</v>
+      </c>
+      <c r="J22" s="5"/>
+      <c r="K22" s="5">
+        <v>0.1</v>
       </c>
       <c r="L22" s="6">
-        <v>56</v>
-      </c>
-      <c r="M22" s="12" t="s">
-        <v>5</v>
-      </c>
-      <c r="N22" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="N22" s="8" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="23" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A23">
-        <v>18</v>
+        <v>46</v>
       </c>
       <c r="B23" t="s">
-        <v>9</v>
+        <v>31</v>
       </c>
       <c r="C23" s="6">
-        <v>57</v>
-      </c>
-      <c r="D23" s="3">
-        <v>1000000</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="D23" s="3"/>
       <c r="E23" s="3">
-        <v>1000000</v>
+        <v>0.78</v>
       </c>
       <c r="F23" s="6">
-        <v>6</v>
-      </c>
-      <c r="G23" s="4">
-        <v>1.9000000000000002E-3</v>
-      </c>
+        <v>40</v>
+      </c>
+      <c r="G23" s="4"/>
       <c r="H23" s="4">
-        <v>7.6999999999999994E-3</v>
+        <v>0.8</v>
       </c>
       <c r="I23" s="6">
-        <v>57</v>
-      </c>
-      <c r="J23" s="5">
-        <v>1000000</v>
-      </c>
+        <v>8</v>
+      </c>
+      <c r="J23" s="5"/>
       <c r="K23" s="5">
-        <v>1000000</v>
+        <v>2.5000000000000001E-4</v>
       </c>
       <c r="L23" s="6">
-        <v>18</v>
-      </c>
-      <c r="M23" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="N23" s="8" t="s">
-        <v>3</v>
+        <v>43</v>
+      </c>
+      <c r="N23" s="10" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="24" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A24">
-        <v>19</v>
-      </c>
-      <c r="B24" s="7" t="s">
-        <v>8</v>
+        <v>9</v>
+      </c>
+      <c r="B24" t="s">
+        <v>57</v>
       </c>
       <c r="C24" s="6">
+        <v>22</v>
+      </c>
+      <c r="D24" s="3"/>
+      <c r="E24" s="3">
+        <v>0.871</v>
+      </c>
+      <c r="F24" s="6">
+        <v>43</v>
+      </c>
+      <c r="G24" s="4"/>
+      <c r="H24" s="4">
+        <v>0.87</v>
+      </c>
+      <c r="I24" s="6">
         <v>20</v>
       </c>
-      <c r="D24" s="3">
-        <v>1.6199999999999999E-2</v>
-      </c>
-      <c r="E24" s="3">
-        <v>0.1</v>
-      </c>
-      <c r="F24" s="6">
-        <v>37</v>
-      </c>
-      <c r="G24" s="4">
-        <v>1.6E-2</v>
-      </c>
-      <c r="H24" s="4">
-        <v>3.3000000000000002E-2</v>
-      </c>
-      <c r="I24" s="6">
-        <v>26</v>
-      </c>
-      <c r="J24" s="5">
-        <v>1E-3</v>
-      </c>
+      <c r="J24" s="5"/>
       <c r="K24" s="5">
         <v>1E-3</v>
       </c>
       <c r="L24" s="6">
-        <v>19</v>
-      </c>
-      <c r="M24" s="8" t="s">
-        <v>3</v>
+        <v>22</v>
       </c>
       <c r="N24" s="8" t="s">
         <v>3</v>
@@ -1731,104 +1654,104 @@
     </row>
     <row r="25" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A25">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="B25" t="s">
-        <v>41</v>
+        <v>16</v>
       </c>
       <c r="C25" s="6">
-        <v>10</v>
+        <v>23</v>
       </c>
       <c r="D25" s="3">
-        <v>1.55E-2</v>
+        <v>0.92800000000000005</v>
       </c>
       <c r="E25" s="3"/>
       <c r="F25" s="6">
-        <v>24</v>
+        <v>45</v>
       </c>
       <c r="G25" s="4">
-        <v>1.4999999999999998E-2</v>
+        <v>0.94</v>
       </c>
       <c r="H25" s="4"/>
       <c r="I25" s="6">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="J25" s="5">
         <v>1E-3</v>
       </c>
       <c r="K25" s="5"/>
       <c r="L25" s="6">
-        <v>20</v>
-      </c>
-      <c r="M25" s="8" t="s">
-        <v>3</v>
+        <v>40</v>
+      </c>
+      <c r="M25" s="10" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="26" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A26">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B26" t="s">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="C26" s="6">
-        <v>11</v>
+        <v>24</v>
       </c>
       <c r="D26" s="3">
-        <v>1.55E-2</v>
+        <v>0.95</v>
       </c>
       <c r="E26" s="3"/>
       <c r="F26" s="6">
-        <v>25</v>
+        <v>46</v>
       </c>
       <c r="G26" s="4">
-        <v>1.4999999999999998E-2</v>
+        <v>0.95999999999999985</v>
       </c>
       <c r="H26" s="4"/>
       <c r="I26" s="6">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="J26" s="5">
         <v>1E-3</v>
       </c>
       <c r="K26" s="5"/>
       <c r="L26" s="6">
-        <v>21</v>
-      </c>
-      <c r="M26" s="8" t="s">
-        <v>3</v>
+        <v>48</v>
+      </c>
+      <c r="M26" s="11" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="27" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A27">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="B27" t="s">
-        <v>39</v>
+        <v>13</v>
       </c>
       <c r="C27" s="6">
-        <v>36</v>
+        <v>25</v>
       </c>
       <c r="D27" s="3">
-        <v>4000</v>
+        <v>1</v>
       </c>
       <c r="E27" s="3"/>
       <c r="F27" s="6">
-        <v>8</v>
+        <v>25</v>
       </c>
       <c r="G27" s="4">
-        <v>5.0000000000000001E-3</v>
+        <v>1.6E-2</v>
       </c>
       <c r="H27" s="4"/>
       <c r="I27" s="6">
-        <v>17</v>
+        <v>36</v>
       </c>
       <c r="J27" s="5">
-        <v>1E-3</v>
+        <v>1</v>
       </c>
       <c r="K27" s="5"/>
       <c r="L27" s="6">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="M27" s="8" t="s">
         <v>3</v>
@@ -1836,139 +1759,148 @@
     </row>
     <row r="28" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A28">
-        <v>23</v>
-      </c>
-      <c r="B28" s="7" t="s">
-        <v>38</v>
+        <v>25</v>
+      </c>
+      <c r="B28" t="s">
+        <v>15</v>
       </c>
       <c r="C28" s="6">
-        <v>13</v>
+        <v>26</v>
       </c>
       <c r="D28" s="3">
-        <v>1.5700000000000002E-2</v>
+        <v>1</v>
       </c>
       <c r="E28" s="3"/>
       <c r="F28" s="6">
-        <v>27</v>
+        <v>48</v>
       </c>
       <c r="G28" s="4">
-        <v>1.6E-2</v>
+        <v>1</v>
       </c>
       <c r="H28" s="4"/>
       <c r="I28" s="6">
-        <v>23</v>
+        <v>38</v>
       </c>
       <c r="J28" s="5">
-        <v>1E-3</v>
+        <v>1</v>
       </c>
       <c r="K28" s="5"/>
       <c r="L28" s="6">
-        <v>23</v>
-      </c>
-      <c r="M28" s="8" t="s">
-        <v>3</v>
+        <v>49</v>
+      </c>
+      <c r="M28" s="11" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="29" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A29">
+        <v>45</v>
+      </c>
+      <c r="B29" t="s">
         <v>32</v>
       </c>
-      <c r="B29" t="s">
-        <v>37</v>
-      </c>
       <c r="C29" s="6">
-        <v>31</v>
-      </c>
-      <c r="D29" s="3">
-        <v>0.95</v>
-      </c>
-      <c r="E29" s="3"/>
+        <v>27</v>
+      </c>
+      <c r="D29" s="3"/>
+      <c r="E29" s="3">
+        <v>2.2000000000000002</v>
+      </c>
       <c r="F29" s="6">
-        <v>55</v>
-      </c>
-      <c r="G29" s="4">
-        <v>0.95999999999999985</v>
-      </c>
-      <c r="H29" s="4"/>
+        <v>49</v>
+      </c>
+      <c r="G29" s="4"/>
+      <c r="H29" s="4">
+        <v>2.2999999999999998</v>
+      </c>
       <c r="I29" s="6">
-        <v>30</v>
-      </c>
-      <c r="J29" s="5">
-        <v>1E-3</v>
-      </c>
-      <c r="K29" s="5"/>
+        <v>9</v>
+      </c>
+      <c r="J29" s="5"/>
+      <c r="K29" s="5">
+        <v>2.5000000000000001E-4</v>
+      </c>
       <c r="L29" s="6">
-        <v>57</v>
-      </c>
-      <c r="M29" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="N29" s="11" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="30" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A30">
-        <v>24</v>
-      </c>
-      <c r="B30" t="s">
-        <v>36</v>
+        <v>13</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>59</v>
       </c>
       <c r="C30" s="6">
-        <v>9</v>
-      </c>
-      <c r="D30" s="3">
-        <v>1.5399999999999999E-2</v>
-      </c>
-      <c r="E30" s="3"/>
+        <v>28</v>
+      </c>
+      <c r="D30" s="14">
+        <v>1</v>
+      </c>
+      <c r="E30" s="14">
+        <v>1000</v>
+      </c>
       <c r="F30" s="6">
-        <v>23</v>
-      </c>
-      <c r="G30" s="4">
-        <v>1.4999999999999998E-2</v>
-      </c>
-      <c r="H30" s="4"/>
+        <v>37</v>
+      </c>
+      <c r="G30" s="15">
+        <v>0.95999999999999985</v>
+      </c>
+      <c r="H30" s="15">
+        <v>3.5999999999999997E-2</v>
+      </c>
       <c r="I30" s="6">
-        <v>19</v>
-      </c>
-      <c r="J30" s="5">
-        <v>1E-3</v>
-      </c>
-      <c r="K30" s="5"/>
+        <v>39</v>
+      </c>
+      <c r="J30" s="16">
+        <v>1</v>
+      </c>
+      <c r="K30" s="16">
+        <v>1000</v>
+      </c>
       <c r="L30" s="6">
-        <v>24</v>
-      </c>
-      <c r="M30" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="M30" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="N30" s="9" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="31" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A31">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="B31" t="s">
-        <v>35</v>
+        <v>22</v>
       </c>
       <c r="C31" s="6">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="D31" s="3">
         <v>4000</v>
       </c>
       <c r="E31" s="3"/>
       <c r="F31" s="6">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G31" s="4">
         <v>5.0000000000000001E-3</v>
       </c>
       <c r="H31" s="4"/>
       <c r="I31" s="6">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="J31" s="5">
         <v>1E-3</v>
       </c>
       <c r="K31" s="5"/>
       <c r="L31" s="6">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="M31" s="8" t="s">
         <v>3</v>
@@ -1976,34 +1908,34 @@
     </row>
     <row r="32" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A32">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="B32" t="s">
-        <v>34</v>
+        <v>18</v>
       </c>
       <c r="C32" s="6">
-        <v>12</v>
+        <v>30</v>
       </c>
       <c r="D32" s="3">
-        <v>1.55E-2</v>
+        <v>4000</v>
       </c>
       <c r="E32" s="3"/>
       <c r="F32" s="6">
-        <v>26</v>
+        <v>9</v>
       </c>
       <c r="G32" s="4">
-        <v>1.4999999999999998E-2</v>
+        <v>5.0000000000000001E-3</v>
       </c>
       <c r="H32" s="4"/>
       <c r="I32" s="6">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="J32" s="5">
         <v>1E-3</v>
       </c>
       <c r="K32" s="5"/>
       <c r="L32" s="6">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="M32" s="8" t="s">
         <v>3</v>
@@ -2011,34 +1943,34 @@
     </row>
     <row r="33" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A33">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="B33" t="s">
-        <v>33</v>
+        <v>14</v>
       </c>
       <c r="C33" s="6">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D33" s="3">
-        <v>0.92800000000000005</v>
+        <v>4000</v>
       </c>
       <c r="E33" s="3"/>
       <c r="F33" s="6">
-        <v>54</v>
+        <v>42</v>
       </c>
       <c r="G33" s="4">
-        <v>0.94</v>
+        <v>0.85</v>
       </c>
       <c r="H33" s="4"/>
       <c r="I33" s="6">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="J33" s="5">
-        <v>1E-3</v>
+        <v>1</v>
       </c>
       <c r="K33" s="5"/>
       <c r="L33" s="6">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="M33" s="10" t="s">
         <v>4</v>
@@ -2046,244 +1978,246 @@
     </row>
     <row r="34" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A34">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="B34" t="s">
+        <v>12</v>
+      </c>
+      <c r="C34" s="6">
         <v>32</v>
       </c>
-      <c r="C34" s="6">
-        <v>33</v>
-      </c>
       <c r="D34" s="3">
-        <v>1</v>
+        <v>10000</v>
       </c>
       <c r="E34" s="3"/>
       <c r="F34" s="6">
-        <v>57</v>
+        <v>38</v>
       </c>
       <c r="G34" s="4">
-        <v>1</v>
+        <v>0.77</v>
       </c>
       <c r="H34" s="4"/>
       <c r="I34" s="6">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="J34" s="5">
-        <v>1</v>
+        <v>10000</v>
       </c>
       <c r="K34" s="5"/>
       <c r="L34" s="6">
-        <v>58</v>
-      </c>
-      <c r="M34" s="11" t="s">
-        <v>5</v>
+        <v>21</v>
+      </c>
+      <c r="M34" s="8" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="35" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A35">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B35" t="s">
-        <v>31</v>
+        <v>11</v>
       </c>
       <c r="C35" s="6">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="D35" s="3">
-        <v>4000</v>
+        <v>10000</v>
       </c>
       <c r="E35" s="3"/>
       <c r="F35" s="6">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="G35" s="4">
-        <v>0.85</v>
+        <v>0.97</v>
       </c>
       <c r="H35" s="4"/>
       <c r="I35" s="6">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="J35" s="5">
-        <v>1</v>
+        <v>10000</v>
       </c>
       <c r="K35" s="5"/>
       <c r="L35" s="6">
         <v>50</v>
       </c>
-      <c r="M35" s="10" t="s">
-        <v>4</v>
+      <c r="M35" s="11" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="36" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A36">
-        <v>27</v>
-      </c>
-      <c r="B36" t="s">
-        <v>30</v>
+        <v>37</v>
+      </c>
+      <c r="B36" s="17" t="s">
+        <v>40</v>
       </c>
       <c r="C36" s="6">
-        <v>32</v>
-      </c>
-      <c r="D36" s="3">
-        <v>1</v>
-      </c>
-      <c r="E36" s="3"/>
+        <v>34</v>
+      </c>
+      <c r="D36" s="18"/>
+      <c r="E36" s="18">
+        <v>11700</v>
+      </c>
       <c r="F36" s="6">
+        <v>50</v>
+      </c>
+      <c r="G36" s="19"/>
+      <c r="H36" s="19">
+        <v>2.8</v>
+      </c>
+      <c r="I36" s="6">
+        <v>25</v>
+      </c>
+      <c r="J36" s="20"/>
+      <c r="K36" s="20">
+        <v>1.2E-2</v>
+      </c>
+      <c r="L36" s="6">
         <v>29</v>
       </c>
-      <c r="G36" s="4">
-        <v>1.6E-2</v>
-      </c>
-      <c r="H36" s="4"/>
-      <c r="I36" s="6">
-        <v>45</v>
-      </c>
-      <c r="J36" s="5">
-        <v>1</v>
-      </c>
-      <c r="K36" s="5"/>
-      <c r="L36" s="6">
-        <v>27</v>
-      </c>
-      <c r="M36" s="8" t="s">
+      <c r="M36" s="17"/>
+      <c r="N36" s="21" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="37" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A37">
-        <v>28</v>
+        <v>40</v>
       </c>
       <c r="B37" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="C37" s="6">
-        <v>39</v>
-      </c>
-      <c r="D37" s="3">
-        <v>10000</v>
-      </c>
-      <c r="E37" s="3"/>
+        <v>35</v>
+      </c>
+      <c r="D37" s="3"/>
+      <c r="E37" s="3">
+        <v>15500</v>
+      </c>
       <c r="F37" s="6">
-        <v>47</v>
-      </c>
-      <c r="G37" s="4">
-        <v>0.77</v>
-      </c>
-      <c r="H37" s="4"/>
+        <v>1</v>
+      </c>
+      <c r="G37" s="4"/>
+      <c r="H37" s="4">
+        <v>1.0999999999999998E-3</v>
+      </c>
       <c r="I37" s="6">
-        <v>55</v>
-      </c>
-      <c r="J37" s="5">
-        <v>10000</v>
-      </c>
-      <c r="K37" s="5"/>
+        <v>40</v>
+      </c>
+      <c r="J37" s="5"/>
+      <c r="K37" s="5">
+        <v>1000</v>
+      </c>
       <c r="L37" s="6">
-        <v>28</v>
-      </c>
-      <c r="M37" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="N37" s="8" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="38" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A38">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="B38" t="s">
-        <v>28</v>
+        <v>38</v>
       </c>
       <c r="C38" s="6">
-        <v>40</v>
-      </c>
-      <c r="D38" s="3">
-        <v>10000</v>
-      </c>
-      <c r="E38" s="3"/>
+        <v>36</v>
+      </c>
+      <c r="D38" s="3"/>
+      <c r="E38" s="3">
+        <v>15500</v>
+      </c>
       <c r="F38" s="6">
-        <v>56</v>
-      </c>
-      <c r="G38" s="4">
-        <v>0.97</v>
-      </c>
-      <c r="H38" s="4"/>
+        <v>3</v>
+      </c>
+      <c r="G38" s="4"/>
+      <c r="H38" s="4">
+        <v>1.2999999999999999E-3</v>
+      </c>
       <c r="I38" s="6">
-        <v>56</v>
-      </c>
-      <c r="J38" s="5">
-        <v>10000</v>
-      </c>
-      <c r="K38" s="5"/>
+        <v>41</v>
+      </c>
+      <c r="J38" s="5"/>
+      <c r="K38" s="5">
+        <v>1000</v>
+      </c>
       <c r="L38" s="6">
-        <v>59</v>
-      </c>
-      <c r="M38" s="11" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="39" spans="1:14" x14ac:dyDescent="0.25">
+        <v>30</v>
+      </c>
+      <c r="N38" s="8" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="1:14" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A39">
-        <v>36</v>
+        <v>49</v>
       </c>
       <c r="B39" t="s">
-        <v>47</v>
+        <v>26</v>
       </c>
       <c r="C39" s="6">
-        <v>58</v>
+        <v>37</v>
       </c>
       <c r="D39" s="3"/>
       <c r="E39" s="3">
-        <v>1000000</v>
+        <v>15500</v>
       </c>
       <c r="F39" s="6">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="G39" s="4"/>
       <c r="H39" s="4">
-        <v>7.6000000000000009E-3</v>
+        <v>1.0999999999999999E-2</v>
       </c>
       <c r="I39" s="6">
-        <v>58</v>
+        <v>43</v>
       </c>
       <c r="J39" s="5"/>
       <c r="K39" s="5">
-        <v>1000000</v>
+        <v>1000</v>
       </c>
       <c r="L39" s="6">
-        <v>30</v>
-      </c>
+        <v>38</v>
+      </c>
+      <c r="M39"/>
       <c r="N39" s="8" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="40" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A40">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="B40" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C40" s="6">
-        <v>59</v>
+        <v>38</v>
       </c>
       <c r="D40" s="3"/>
       <c r="E40" s="3">
-        <v>1000000</v>
+        <v>15500</v>
       </c>
       <c r="F40" s="6">
-        <v>13</v>
+        <v>36</v>
       </c>
       <c r="G40" s="4"/>
       <c r="H40" s="4">
-        <v>7.6999999999999994E-3</v>
+        <v>5.3999999999999999E-2</v>
       </c>
       <c r="I40" s="6">
-        <v>59</v>
+        <v>45</v>
       </c>
       <c r="J40" s="5"/>
       <c r="K40" s="5">
-        <v>1000000</v>
+        <v>1000</v>
       </c>
       <c r="L40" s="6">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="N40" s="8" t="s">
         <v>3</v>
@@ -2291,62 +2225,62 @@
     </row>
     <row r="41" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A41">
-        <v>38</v>
+        <v>8</v>
       </c>
       <c r="B41" t="s">
-        <v>66</v>
+        <v>56</v>
       </c>
       <c r="C41" s="6">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="D41" s="3"/>
       <c r="E41" s="3">
-        <v>15500</v>
+        <v>15600</v>
       </c>
       <c r="F41" s="6">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="G41" s="4"/>
       <c r="H41" s="4">
-        <v>5.3999999999999999E-2</v>
+        <v>0.87</v>
       </c>
       <c r="I41" s="6">
-        <v>54</v>
+        <v>21</v>
       </c>
       <c r="J41" s="5"/>
       <c r="K41" s="5">
-        <v>1000</v>
+        <v>1E-3</v>
       </c>
       <c r="L41" s="6">
-        <v>32</v>
-      </c>
-      <c r="N41" s="8" t="s">
-        <v>3</v>
+        <v>44</v>
+      </c>
+      <c r="N41" s="11" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="42" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A42">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="B42" t="s">
-        <v>65</v>
+        <v>35</v>
       </c>
       <c r="C42" s="6">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="D42" s="3"/>
       <c r="E42" s="3">
-        <v>15500</v>
+        <v>15600</v>
       </c>
       <c r="F42" s="6">
-        <v>45</v>
+        <v>2</v>
       </c>
       <c r="G42" s="4"/>
       <c r="H42" s="4">
-        <v>7.9000000000000001E-2</v>
+        <v>1.0999999999999998E-3</v>
       </c>
       <c r="I42" s="6">
-        <v>42</v>
+        <v>26</v>
       </c>
       <c r="J42" s="5"/>
       <c r="K42" s="5">
@@ -2361,69 +2295,69 @@
     </row>
     <row r="43" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A43">
-        <v>58</v>
+        <v>47</v>
       </c>
       <c r="B43" t="s">
-        <v>64</v>
+        <v>30</v>
       </c>
       <c r="C43" s="6">
-        <v>54</v>
+        <v>41</v>
       </c>
       <c r="D43" s="3"/>
       <c r="E43" s="3">
         <v>15600</v>
       </c>
       <c r="F43" s="6">
-        <v>50</v>
+        <v>4</v>
       </c>
       <c r="G43" s="4"/>
       <c r="H43" s="4">
-        <v>0.83</v>
+        <v>1.5E-3</v>
       </c>
       <c r="I43" s="6">
-        <v>44</v>
+        <v>27</v>
       </c>
       <c r="J43" s="5"/>
       <c r="K43" s="5">
         <v>0.1</v>
       </c>
       <c r="L43" s="6">
-        <v>54</v>
-      </c>
-      <c r="N43" s="11" t="s">
-        <v>5</v>
+        <v>36</v>
+      </c>
+      <c r="N43" s="8" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="44" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A44">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B44" t="s">
-        <v>63</v>
+        <v>36</v>
       </c>
       <c r="C44" s="6">
-        <v>56</v>
+        <v>42</v>
       </c>
       <c r="D44" s="3"/>
       <c r="E44" s="3">
-        <v>15800.000000000002</v>
+        <v>15600</v>
       </c>
       <c r="F44" s="6">
-        <v>40</v>
+        <v>5</v>
       </c>
       <c r="G44" s="4"/>
       <c r="H44" s="4">
-        <v>2.9999999999999995E-2</v>
+        <v>1.6999999999999999E-3</v>
       </c>
       <c r="I44" s="6">
-        <v>53</v>
+        <v>28</v>
       </c>
       <c r="J44" s="5"/>
       <c r="K44" s="5">
-        <v>1000</v>
+        <v>0.1</v>
       </c>
       <c r="L44" s="6">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="N44" s="8" t="s">
         <v>3</v>
@@ -2431,34 +2365,34 @@
     </row>
     <row r="45" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A45">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="B45" t="s">
-        <v>62</v>
+        <v>42</v>
       </c>
       <c r="C45" s="6">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D45" s="3"/>
       <c r="E45" s="3">
-        <v>15500</v>
+        <v>15600</v>
       </c>
       <c r="F45" s="6">
-        <v>44</v>
+        <v>7</v>
       </c>
       <c r="G45" s="4"/>
       <c r="H45" s="4">
-        <v>5.3999999999999999E-2</v>
+        <v>4.4999999999999997E-3</v>
       </c>
       <c r="I45" s="6">
-        <v>41</v>
+        <v>29</v>
       </c>
       <c r="J45" s="5"/>
       <c r="K45" s="5">
         <v>0.1</v>
       </c>
       <c r="L45" s="6">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="N45" s="8" t="s">
         <v>3</v>
@@ -2466,104 +2400,104 @@
     </row>
     <row r="46" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A46">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="B46" t="s">
-        <v>61</v>
+        <v>39</v>
       </c>
       <c r="C46" s="6">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="D46" s="3"/>
       <c r="E46" s="3">
         <v>15600</v>
       </c>
       <c r="F46" s="6">
-        <v>7</v>
+        <v>39</v>
       </c>
       <c r="G46" s="4"/>
       <c r="H46" s="4">
-        <v>4.4999999999999997E-3</v>
+        <v>0.78</v>
       </c>
       <c r="I46" s="6">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="J46" s="5"/>
       <c r="K46" s="5">
         <v>0.1</v>
       </c>
       <c r="L46" s="6">
-        <v>36</v>
-      </c>
-      <c r="N46" s="8" t="s">
-        <v>3</v>
+        <v>42</v>
+      </c>
+      <c r="N46" s="10" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="47" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A47">
-        <v>43</v>
+        <v>33</v>
       </c>
       <c r="B47" t="s">
-        <v>60</v>
+        <v>44</v>
       </c>
       <c r="C47" s="6">
-        <v>27</v>
+        <v>45</v>
       </c>
       <c r="D47" s="3"/>
       <c r="E47" s="3">
-        <v>0.1</v>
+        <v>15600</v>
       </c>
       <c r="F47" s="6">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="G47" s="4"/>
       <c r="H47" s="4">
-        <v>2.1000000000000001E-2</v>
+        <v>0.83</v>
       </c>
       <c r="I47" s="6">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="J47" s="5"/>
       <c r="K47" s="5">
         <v>0.1</v>
       </c>
       <c r="L47" s="6">
-        <v>37</v>
-      </c>
-      <c r="N47" s="8" t="s">
-        <v>3</v>
+        <v>45</v>
+      </c>
+      <c r="N47" s="11" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="48" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A48">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="B48" t="s">
-        <v>59</v>
+        <v>25</v>
       </c>
       <c r="C48" s="6">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="D48" s="3"/>
       <c r="E48" s="3">
-        <v>11700</v>
+        <v>15800.000000000002</v>
       </c>
       <c r="F48" s="6">
-        <v>59</v>
+        <v>15</v>
       </c>
       <c r="G48" s="4"/>
       <c r="H48" s="4">
-        <v>2.8</v>
+        <v>0.01</v>
       </c>
       <c r="I48" s="6">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="J48" s="5"/>
       <c r="K48" s="5">
-        <v>1.2E-2</v>
+        <v>1000</v>
       </c>
       <c r="L48" s="6">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="N48" s="8" t="s">
         <v>3</v>
@@ -2571,69 +2505,78 @@
     </row>
     <row r="49" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A49">
-        <v>55</v>
+        <v>34</v>
       </c>
       <c r="B49" t="s">
-        <v>58</v>
+        <v>43</v>
       </c>
       <c r="C49" s="6">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="D49" s="3"/>
       <c r="E49" s="3">
-        <v>15600</v>
+        <v>15800.000000000002</v>
       </c>
       <c r="F49" s="6">
-        <v>48</v>
+        <v>34</v>
       </c>
       <c r="G49" s="4"/>
       <c r="H49" s="4">
-        <v>0.78</v>
+        <v>2.9999999999999995E-2</v>
       </c>
       <c r="I49" s="6">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="J49" s="5"/>
       <c r="K49" s="5">
-        <v>0.1</v>
+        <v>1000</v>
       </c>
       <c r="L49" s="6">
-        <v>51</v>
-      </c>
-      <c r="N49" s="10" t="s">
-        <v>4</v>
+        <v>26</v>
+      </c>
+      <c r="N49" s="8" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="50" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A50">
-        <v>45</v>
+        <v>14</v>
       </c>
       <c r="B50" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C50" s="6">
-        <v>45</v>
-      </c>
-      <c r="D50" s="3"/>
+        <v>48</v>
+      </c>
+      <c r="D50" s="3">
+        <v>1000000</v>
+      </c>
       <c r="E50" s="3">
-        <v>15500</v>
+        <v>1000000</v>
       </c>
       <c r="F50" s="6">
-        <v>3</v>
-      </c>
-      <c r="G50" s="4"/>
+        <v>6</v>
+      </c>
+      <c r="G50" s="4">
+        <v>1.9000000000000002E-3</v>
+      </c>
       <c r="H50" s="4">
-        <v>1.2999999999999999E-3</v>
+        <v>7.6999999999999994E-3</v>
       </c>
       <c r="I50" s="6">
-        <v>50</v>
-      </c>
-      <c r="J50" s="5"/>
+        <v>48</v>
+      </c>
+      <c r="J50" s="5">
+        <v>1000000</v>
+      </c>
       <c r="K50" s="5">
-        <v>1000</v>
+        <v>1000000</v>
       </c>
       <c r="L50" s="6">
-        <v>39</v>
+        <v>11</v>
+      </c>
+      <c r="M50" s="8" t="s">
+        <v>3</v>
       </c>
       <c r="N50" s="8" t="s">
         <v>3</v>
@@ -2641,34 +2584,34 @@
     </row>
     <row r="51" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A51">
-        <v>46</v>
+        <v>30</v>
       </c>
       <c r="B51" t="s">
-        <v>56</v>
+        <v>28</v>
       </c>
       <c r="C51" s="6">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="D51" s="3"/>
       <c r="E51" s="3">
-        <v>15500</v>
+        <v>1000000</v>
       </c>
       <c r="F51" s="6">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="G51" s="4"/>
       <c r="H51" s="4">
-        <v>1.0999999999999998E-3</v>
+        <v>7.6000000000000009E-3</v>
       </c>
       <c r="I51" s="6">
         <v>49</v>
       </c>
       <c r="J51" s="5"/>
       <c r="K51" s="5">
-        <v>1000</v>
+        <v>1000000</v>
       </c>
       <c r="L51" s="6">
-        <v>40</v>
+        <v>23</v>
       </c>
       <c r="N51" s="8" t="s">
         <v>3</v>
@@ -2676,358 +2619,46 @@
     </row>
     <row r="52" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A52">
-        <v>47</v>
+        <v>31</v>
       </c>
       <c r="B52" t="s">
-        <v>55</v>
+        <v>27</v>
       </c>
       <c r="C52" s="6">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D52" s="3"/>
       <c r="E52" s="3">
-        <v>15600</v>
+        <v>1000000</v>
       </c>
       <c r="F52" s="6">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="G52" s="4"/>
       <c r="H52" s="4">
-        <v>1.6999999999999999E-3</v>
+        <v>7.6999999999999994E-3</v>
       </c>
       <c r="I52" s="6">
-        <v>35</v>
+        <v>50</v>
       </c>
       <c r="J52" s="5"/>
       <c r="K52" s="5">
-        <v>0.1</v>
+        <v>1000000</v>
       </c>
       <c r="L52" s="6">
-        <v>41</v>
+        <v>24</v>
       </c>
       <c r="N52" s="8" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="53" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A53">
-        <v>48</v>
-      </c>
-      <c r="B53" t="s">
-        <v>54</v>
-      </c>
-      <c r="C53" s="6">
-        <v>49</v>
-      </c>
-      <c r="D53" s="3"/>
-      <c r="E53" s="3">
-        <v>15600</v>
-      </c>
-      <c r="F53" s="6">
-        <v>2</v>
-      </c>
-      <c r="G53" s="4"/>
-      <c r="H53" s="4">
-        <v>1.0999999999999998E-3</v>
-      </c>
-      <c r="I53" s="6">
-        <v>33</v>
-      </c>
-      <c r="J53" s="5"/>
-      <c r="K53" s="5">
-        <v>0.1</v>
-      </c>
-      <c r="L53" s="6">
-        <v>42</v>
-      </c>
-      <c r="N53" s="8" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="54" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A54">
-        <v>49</v>
-      </c>
-      <c r="B54" t="s">
-        <v>53</v>
-      </c>
-      <c r="C54" s="6">
-        <v>25</v>
-      </c>
-      <c r="D54" s="3"/>
-      <c r="E54" s="3">
-        <v>0.1</v>
-      </c>
-      <c r="F54" s="6">
-        <v>34</v>
-      </c>
-      <c r="G54" s="4"/>
-      <c r="H54" s="4">
-        <v>1.7999999999999999E-2</v>
-      </c>
-      <c r="I54" s="6">
-        <v>38</v>
-      </c>
-      <c r="J54" s="5"/>
-      <c r="K54" s="5">
-        <v>0.1</v>
-      </c>
-      <c r="L54" s="6">
-        <v>43</v>
-      </c>
-      <c r="N54" s="8" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="55" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A55">
-        <v>50</v>
-      </c>
-      <c r="B55" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="C55" s="6">
-        <v>24</v>
-      </c>
-      <c r="D55" s="3"/>
-      <c r="E55" s="3">
-        <v>0.1</v>
-      </c>
-      <c r="F55" s="6">
-        <v>22</v>
-      </c>
-      <c r="G55" s="4"/>
-      <c r="H55" s="4">
-        <v>1.2999999999999999E-2</v>
-      </c>
-      <c r="I55" s="6">
-        <v>37</v>
-      </c>
-      <c r="J55" s="5"/>
-      <c r="K55" s="5">
-        <v>0.1</v>
-      </c>
-      <c r="L55" s="6">
-        <v>44</v>
-      </c>
-      <c r="N55" s="8" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="56" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A56">
-        <v>59</v>
-      </c>
-      <c r="B56" t="s">
-        <v>51</v>
-      </c>
-      <c r="C56" s="6">
-        <v>34</v>
-      </c>
-      <c r="D56" s="3"/>
-      <c r="E56" s="3">
-        <v>2.2000000000000002</v>
-      </c>
-      <c r="F56" s="6">
-        <v>58</v>
-      </c>
-      <c r="G56" s="4"/>
-      <c r="H56" s="4">
-        <v>2.2999999999999998</v>
-      </c>
-      <c r="I56" s="6">
-        <v>16</v>
-      </c>
-      <c r="J56" s="5"/>
-      <c r="K56" s="5">
-        <v>2.5000000000000001E-4</v>
-      </c>
-      <c r="L56" s="6">
-        <v>55</v>
-      </c>
-      <c r="N56" s="11" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="57" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A57">
-        <v>56</v>
-      </c>
-      <c r="B57" t="s">
-        <v>50</v>
-      </c>
-      <c r="C57" s="6">
-        <v>28</v>
-      </c>
-      <c r="D57" s="3"/>
-      <c r="E57" s="3">
-        <v>0.78</v>
-      </c>
-      <c r="F57" s="6">
-        <v>49</v>
-      </c>
-      <c r="G57" s="4"/>
-      <c r="H57" s="4">
-        <v>0.8</v>
-      </c>
-      <c r="I57" s="6">
-        <v>15</v>
-      </c>
-      <c r="J57" s="5"/>
-      <c r="K57" s="5">
-        <v>2.5000000000000001E-4</v>
-      </c>
-      <c r="L57" s="6">
-        <v>52</v>
-      </c>
-      <c r="N57" s="10" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="58" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A58">
-        <v>51</v>
-      </c>
-      <c r="B58" t="s">
-        <v>49</v>
-      </c>
-      <c r="C58" s="6">
-        <v>50</v>
-      </c>
-      <c r="D58" s="3"/>
-      <c r="E58" s="3">
-        <v>15600</v>
-      </c>
-      <c r="F58" s="6">
-        <v>4</v>
-      </c>
-      <c r="G58" s="4"/>
-      <c r="H58" s="4">
-        <v>1.5E-3</v>
-      </c>
-      <c r="I58" s="6">
-        <v>34</v>
-      </c>
-      <c r="J58" s="5"/>
-      <c r="K58" s="5">
-        <v>0.1</v>
-      </c>
-      <c r="L58" s="6">
-        <v>45</v>
-      </c>
-      <c r="N58" s="8" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="59" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A59">
-        <v>52</v>
-      </c>
-      <c r="B59" t="s">
-        <v>48</v>
-      </c>
-      <c r="C59" s="6">
-        <v>26</v>
-      </c>
-      <c r="D59" s="3"/>
-      <c r="E59" s="3">
-        <v>0.1</v>
-      </c>
-      <c r="F59" s="6">
-        <v>35</v>
-      </c>
-      <c r="G59" s="4"/>
-      <c r="H59" s="4">
-        <v>1.7999999999999999E-2</v>
-      </c>
-      <c r="I59" s="6">
-        <v>39</v>
-      </c>
-      <c r="J59" s="5"/>
-      <c r="K59" s="5">
-        <v>0.1</v>
-      </c>
-      <c r="L59" s="6">
-        <v>46</v>
-      </c>
-      <c r="N59" s="8" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="60" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A60">
-        <v>53</v>
-      </c>
-      <c r="B60" t="s">
-        <v>45</v>
-      </c>
-      <c r="C60" s="6">
-        <v>46</v>
-      </c>
-      <c r="D60" s="3"/>
-      <c r="E60" s="3">
-        <v>15500</v>
-      </c>
-      <c r="F60" s="6">
-        <v>19</v>
-      </c>
-      <c r="G60" s="4"/>
-      <c r="H60" s="4">
-        <v>1.0999999999999999E-2</v>
-      </c>
-      <c r="I60" s="6">
-        <v>52</v>
-      </c>
-      <c r="J60" s="5"/>
-      <c r="K60" s="5">
-        <v>1000</v>
-      </c>
-      <c r="L60" s="6">
-        <v>47</v>
-      </c>
-      <c r="N60" s="8" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="61" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A61">
-        <v>54</v>
-      </c>
-      <c r="B61" t="s">
-        <v>44</v>
-      </c>
-      <c r="C61" s="6">
-        <v>55</v>
-      </c>
-      <c r="D61" s="3"/>
-      <c r="E61" s="3">
-        <v>15800.000000000002</v>
-      </c>
-      <c r="F61" s="6">
-        <v>18</v>
-      </c>
-      <c r="G61" s="4"/>
-      <c r="H61" s="4">
-        <v>0.01</v>
-      </c>
-      <c r="I61" s="6">
-        <v>51</v>
-      </c>
-      <c r="J61" s="5"/>
-      <c r="K61" s="5">
-        <v>1000</v>
-      </c>
-      <c r="L61" s="6">
-        <v>48</v>
-      </c>
-      <c r="N61" s="8" t="s">
-        <v>3</v>
-      </c>
+      <c r="C53" s="6"/>
     </row>
   </sheetData>
   <autoFilter ref="A2:N2" xr:uid="{DA7D6980-DB41-49AD-AB62-2CDBC3F6894C}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A3:N61">
-      <sortCondition ref="B2"/>
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A3:N52">
+      <sortCondition ref="C2"/>
     </sortState>
   </autoFilter>
   <mergeCells count="4">
@@ -3036,8 +2667,18 @@
     <mergeCell ref="F1:H1"/>
     <mergeCell ref="L1:N1"/>
   </mergeCells>
-  <conditionalFormatting sqref="D3:E61">
-    <cfRule type="colorScale" priority="6">
+  <conditionalFormatting sqref="D3:E52">
+    <cfRule type="colorScale" priority="163">
+      <colorScale>
+        <cfvo type="num" val="0.1"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="num" val="1000"/>
+        <color theme="9"/>
+        <color rgb="FFFFEB84"/>
+        <color theme="5"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="164">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -3047,7 +2688,7 @@
         <color theme="5"/>
       </colorScale>
     </cfRule>
-    <cfRule type="colorScale" priority="7">
+    <cfRule type="colorScale" priority="165">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -3057,39 +2698,7 @@
         <color rgb="FF63BE7B"/>
       </colorScale>
     </cfRule>
-    <cfRule type="colorScale" priority="10">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-    <cfRule type="colorScale" priority="1">
-      <colorScale>
-        <cfvo type="num" val="0.1"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="num" val="1000"/>
-        <color theme="9"/>
-        <color rgb="FFFFEB84"/>
-        <color theme="5"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G3:H61">
-    <cfRule type="colorScale" priority="5">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color theme="9"/>
-        <color rgb="FFFFEB84"/>
-        <color theme="5"/>
-      </colorScale>
-    </cfRule>
-    <cfRule type="colorScale" priority="9">
+    <cfRule type="colorScale" priority="166">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -3100,8 +2709,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J3:K61">
-    <cfRule type="colorScale" priority="4">
+  <conditionalFormatting sqref="G3:H52">
+    <cfRule type="colorScale" priority="167">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -3111,7 +2720,7 @@
         <color theme="5"/>
       </colorScale>
     </cfRule>
-    <cfRule type="colorScale" priority="8">
+    <cfRule type="colorScale" priority="168">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -3121,7 +2730,9 @@
         <color rgb="FFF8696B"/>
       </colorScale>
     </cfRule>
-    <cfRule type="colorScale" priority="2">
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J3:K52">
+    <cfRule type="colorScale" priority="169">
       <colorScale>
         <cfvo type="num" val="1E-3"/>
         <cfvo type="percentile" val="50"/>
@@ -3131,9 +2742,29 @@
         <color theme="5"/>
       </colorScale>
     </cfRule>
+    <cfRule type="colorScale" priority="170">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color theme="9"/>
+        <color rgb="FFFFEB84"/>
+        <color theme="5"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="171">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="M3:N61">
-    <cfRule type="colorScale" priority="3">
+  <conditionalFormatting sqref="M3:N52">
+    <cfRule type="colorScale" priority="172">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
